--- a/Coverage Survey/Ethiopia/et_ces_sch_sth_2_hh_202111.xlsx
+++ b/Coverage Survey/Ethiopia/et_ces_sch_sth_2_hh_202111.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12345" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="442">
   <si>
     <t>type</t>
   </si>
@@ -88,7 +88,7 @@
     <t>H3. Region Name</t>
   </si>
   <si>
-    <t>select_ont woreda</t>
+    <t>select_one woreda</t>
   </si>
   <si>
     <t>h_woreda</t>
@@ -97,7 +97,7 @@
     <t xml:space="preserve">H4. Woreda name </t>
   </si>
   <si>
-    <t>regioin = ${h_region}</t>
+    <t>region = ${h_region}</t>
   </si>
   <si>
     <t>select_one kebele</t>
@@ -151,6 +151,9 @@
     <t>8b If you are not able to interview this house: Reason why household not interviewed</t>
   </si>
   <si>
+    <t>${h_interviewed_house} = 'No'</t>
+  </si>
+  <si>
     <t>h_reason_not_interviewed_other</t>
   </si>
   <si>
@@ -169,6 +172,9 @@
     <t>9 If you are able to interview this house: Consent form signed by Head of House?</t>
   </si>
   <si>
+    <t>${h_interviewed_house} != 'No'</t>
+  </si>
+  <si>
     <t>geopoint</t>
   </si>
   <si>
@@ -196,7 +202,7 @@
     <t>11 How many adult males live in this house (15 or older)? </t>
   </si>
   <si>
-    <t>h_female_mamber</t>
+    <t>h_female_member</t>
   </si>
   <si>
     <t>12 How many adult females live in this house (15 or older)? </t>
@@ -265,19 +271,19 @@
     <t>woreda</t>
   </si>
   <si>
+    <t>Amhara</t>
+  </si>
+  <si>
+    <t>Gambella</t>
+  </si>
+  <si>
+    <t>Oromia</t>
+  </si>
+  <si>
+    <t>Sidama</t>
+  </si>
+  <si>
     <t>SNNPR</t>
-  </si>
-  <si>
-    <t>Gambella</t>
-  </si>
-  <si>
-    <t>Oromia</t>
-  </si>
-  <si>
-    <t>Amhara</t>
-  </si>
-  <si>
-    <t>Sidama</t>
   </si>
   <si>
     <t>Abeshige</t>
@@ -1676,10 +1682,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -1764,31 +1770,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1802,8 +1793,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1814,22 +1806,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1848,16 +1824,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1870,6 +1839,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -1878,10 +1885,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1892,9 +1899,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1948,49 +1954,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2008,7 +1972,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2020,7 +2098,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2032,43 +2122,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2080,55 +2134,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2203,17 +2209,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2222,7 +2222,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2238,6 +2253,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2268,30 +2298,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2303,142 +2309,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2838,8 +2844,8 @@
   </sheetPr>
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.425" defaultRowHeight="12.75"/>
@@ -3054,7 +3060,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" ht="25.5" spans="1:6">
+    <row r="11" ht="25.5" spans="1:10">
       <c r="A11" s="26" t="s">
         <v>41</v>
       </c>
@@ -3068,69 +3074,74 @@
       <c r="F11" s="26" t="s">
         <v>15</v>
       </c>
+      <c r="J11" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="12" ht="25.5" spans="1:10">
       <c r="A12" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" s="29"/>
       <c r="F12" s="26" t="s">
         <v>15</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" ht="25.5" spans="1:11">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D13" s="29"/>
       <c r="F13" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="26"/>
+      <c r="J13" t="s">
+        <v>51</v>
+      </c>
       <c r="K13" s="22"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="26" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D14" s="29"/>
       <c r="F14" s="26" t="s">
         <v>15</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" ht="25.5" spans="1:10">
       <c r="A15" s="26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D15" s="29"/>
       <c r="F15" s="26" t="s">
@@ -3138,7 +3149,7 @@
       </c>
       <c r="G15" s="26"/>
       <c r="J15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" ht="25.5" spans="1:10">
@@ -3146,10 +3157,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D16" s="29"/>
       <c r="F16" s="26" t="s">
@@ -3157,7 +3168,7 @@
       </c>
       <c r="G16" s="22"/>
       <c r="J16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" ht="25.5" spans="1:10">
@@ -3165,10 +3176,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D17" s="29"/>
       <c r="F17" s="26" t="s">
@@ -3176,7 +3187,7 @@
       </c>
       <c r="G17" s="22"/>
       <c r="J17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -3184,22 +3195,21 @@
         <v>16</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D18" s="29"/>
       <c r="F18" s="26" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="22"/>
-      <c r="H18"/>
       <c r="J18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M18" t="s">
         <v>15</v>
@@ -3210,17 +3220,17 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D19" s="29"/>
       <c r="F19" s="26" t="s">
         <v>15</v>
       </c>
       <c r="J19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3228,17 +3238,17 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D20" s="29"/>
       <c r="F20" s="26" t="s">
         <v>15</v>
       </c>
       <c r="J20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3246,17 +3256,17 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D21" s="29"/>
       <c r="F21" s="26" t="s">
         <v>15</v>
       </c>
       <c r="J21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -3264,46 +3274,46 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D22" s="29"/>
       <c r="F22" s="26" t="s">
         <v>15</v>
       </c>
       <c r="J22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" ht="25.5" spans="1:6">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D23" s="29"/>
       <c r="F23" s="26"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -3322,12 +3332,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G335"/>
+  <dimension ref="A1:G330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A294" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A334" sqref="A334"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="$A7:$XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.425" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -3340,7 +3350,7 @@
   <sheetData>
     <row r="1" s="20" customFormat="1" spans="1:7">
       <c r="A1" s="21" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>1</v>
@@ -3349,23 +3359,23 @@
         <v>2</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F1" s="21"/>
       <c r="G1" s="21"/>
     </row>
     <row r="2" s="19" customFormat="1" spans="1:7">
       <c r="A2" s="22" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
@@ -3374,13 +3384,13 @@
     </row>
     <row r="3" s="19" customFormat="1" spans="1:7">
       <c r="A3" s="22" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
@@ -3389,13 +3399,13 @@
     </row>
     <row r="4" s="19" customFormat="1" spans="1:7">
       <c r="A4" s="22" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
@@ -3404,13 +3414,13 @@
     </row>
     <row r="5" s="19" customFormat="1" spans="1:7">
       <c r="A5" s="22" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
@@ -3419,13 +3429,13 @@
     </row>
     <row r="6" s="19" customFormat="1" spans="1:7">
       <c r="A6" s="22" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
@@ -3433,126 +3443,121 @@
       <c r="G6" s="22"/>
     </row>
     <row r="7" s="19" customFormat="1" spans="1:7">
-      <c r="A7" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>86</v>
-      </c>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
     </row>
-    <row r="8" s="19" customFormat="1" spans="1:7">
-      <c r="A8" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="22" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-    </row>
-    <row r="9" s="19" customFormat="1" spans="1:7">
-      <c r="A9" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="10" s="19" customFormat="1" spans="1:7">
-      <c r="A10" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-    </row>
-    <row r="11" s="19" customFormat="1" spans="1:7">
-      <c r="A11" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-    </row>
-    <row r="12" s="19" customFormat="1" spans="1:7">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" t="s">
         <v>87</v>
-      </c>
-      <c r="C13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D15" t="s">
         <v>84</v>
@@ -3560,601 +3565,601 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>100</v>
+      </c>
+      <c r="E19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>101</v>
+      </c>
+      <c r="E20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>102</v>
+      </c>
+      <c r="E21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" t="s">
-        <v>85</v>
+        <v>103</v>
+      </c>
+      <c r="E22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E24" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E25" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C26" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E26" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C27" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C28" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E28" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E29" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C30" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E30" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C31" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E31" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B32" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C32" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E32" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B33" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C33" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C34" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E34" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C35" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C36" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E36" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B37" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C37" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E37" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E38" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B39" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E39" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B40" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C40" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E40" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B41" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C41" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E41" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B42" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C42" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E42" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C43" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E43" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B44" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C44" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E44" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B45" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C45" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E45" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C46" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E46" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B47" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C47" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B48" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C48" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B49" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C49" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E49" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B50" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C50" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E50" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B51" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C51" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B52" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C52" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E52" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B53" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C53" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E53" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B54" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C54" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E54" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B55" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C55" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E55" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B56" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C56" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E56" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B57" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C57" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E57" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B58" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C58" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E58" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B59" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C59" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E59" t="s">
         <v>93</v>
@@ -4162,13 +4167,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B60" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C60" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E60" t="s">
         <v>93</v>
@@ -4176,13 +4181,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B61" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C61" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E61" t="s">
         <v>93</v>
@@ -4190,55 +4195,55 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
+        <v>99</v>
+      </c>
+      <c r="B62" t="s">
+        <v>143</v>
+      </c>
+      <c r="C62" t="s">
+        <v>143</v>
+      </c>
+      <c r="E62" t="s">
         <v>97</v>
-      </c>
-      <c r="B62" t="s">
-        <v>136</v>
-      </c>
-      <c r="C62" t="s">
-        <v>136</v>
-      </c>
-      <c r="E62" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B63" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C63" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E63" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B64" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C64" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E64" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B65" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C65" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E65" t="s">
         <v>91</v>
@@ -4246,125 +4251,125 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B66" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C66" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E66" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B67" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C67" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E67" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B68" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C68" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E68" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B69" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C69" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E69" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B70" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C70" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E70" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B71" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C71" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E71" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B72" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C72" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E72" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B73" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C73" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E73" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B74" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C74" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E74" t="s">
         <v>91</v>
@@ -4372,363 +4377,363 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B75" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C75" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E75" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B76" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C76" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E76" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B77" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C77" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E77" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B78" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C78" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E78" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B79" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C79" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E79" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B80" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C80" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E80" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B81" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C81" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E81" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B82" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C82" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E82" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B83" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C83" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E83" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B84" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C84" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E84" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B85" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C85" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E85" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B86" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C86" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E86" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
+        <v>99</v>
+      </c>
+      <c r="B87" t="s">
+        <v>168</v>
+      </c>
+      <c r="C87" t="s">
+        <v>168</v>
+      </c>
+      <c r="E87" t="s">
         <v>97</v>
-      </c>
-      <c r="B87" t="s">
-        <v>161</v>
-      </c>
-      <c r="C87" t="s">
-        <v>161</v>
-      </c>
-      <c r="E87" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B88" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C88" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E88" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B89" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C89" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="E89" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B90" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C90" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E90" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B91" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C91" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E91" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B92" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C92" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C93" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="E93" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C94" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="E94" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
+        <v>99</v>
+      </c>
+      <c r="B95" t="s">
+        <v>176</v>
+      </c>
+      <c r="C95" t="s">
+        <v>176</v>
+      </c>
+      <c r="E95" t="s">
         <v>97</v>
-      </c>
-      <c r="B95" t="s">
-        <v>169</v>
-      </c>
-      <c r="C95" t="s">
-        <v>169</v>
-      </c>
-      <c r="E95" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96" t="s">
+        <v>177</v>
+      </c>
+      <c r="C96" t="s">
+        <v>177</v>
+      </c>
+      <c r="E96" t="s">
         <v>97</v>
-      </c>
-      <c r="B96" t="s">
-        <v>170</v>
-      </c>
-      <c r="C96" t="s">
-        <v>170</v>
-      </c>
-      <c r="E96" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97" t="s">
+        <v>178</v>
+      </c>
+      <c r="C97" t="s">
+        <v>178</v>
+      </c>
+      <c r="E97" t="s">
         <v>97</v>
-      </c>
-      <c r="B97" t="s">
-        <v>171</v>
-      </c>
-      <c r="C97" t="s">
-        <v>171</v>
-      </c>
-      <c r="E97" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" t="s">
+        <v>179</v>
+      </c>
+      <c r="C98" t="s">
+        <v>179</v>
+      </c>
+      <c r="E98" t="s">
         <v>97</v>
-      </c>
-      <c r="B98" t="s">
-        <v>172</v>
-      </c>
-      <c r="C98" t="s">
-        <v>172</v>
-      </c>
-      <c r="E98" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C99" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E99" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C100" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="E100" t="s">
         <v>95</v>
@@ -4736,13 +4741,13 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C101" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E101" t="s">
         <v>95</v>
@@ -4750,41 +4755,41 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B102" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C102" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E102" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B103" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C103" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="E103" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B104" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C104" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E104" t="s">
         <v>93</v>
@@ -4792,251 +4797,251 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B105" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C105" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="E105" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B106" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C106" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E106" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B107" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C107" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="E107" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B108" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C108" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="E108" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B109" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C109" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="E109" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B110" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C110" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="E110" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B111" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C111" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="E111" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B112" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C112" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="E112" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B113" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C113" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="E113" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B114" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C114" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="E114" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B115" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C115" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="E115" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B116" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C116" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="E116" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B117" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C117" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="E117" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B118" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C118" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="E118" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B119" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C119" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="E119" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B120" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C120" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="E120" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B121" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C121" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="E121" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B122" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C122" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="E122" t="s">
         <v>92</v>
@@ -5044,13 +5049,13 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B123" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C123" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E123" t="s">
         <v>92</v>
@@ -5058,13 +5063,13 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B124" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C124" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="E124" t="s">
         <v>92</v>
@@ -5072,69 +5077,69 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B125" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C125" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="E125" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B126" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C126" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="E126" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B127" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C127" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="E127" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B128" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C128" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E128" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B129" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C129" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="E129" t="s">
         <v>90</v>
@@ -5142,195 +5147,195 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B130" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C130" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="E130" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B131" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C131" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="E131" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B132" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C132" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E132" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B133" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C133" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E133" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B134" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C134" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="E134" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B135" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C135" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="E135" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B136" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C136" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="E136" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B137" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C137" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="E137" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B138" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C138" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="E138" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B139" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C139" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="E139" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B140" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C140" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="E140" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B141" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C141" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="E141" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B142" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C142" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="E142" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B143" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="C143" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E143" t="s">
         <v>94</v>
@@ -5338,13 +5343,13 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B144" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C144" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="E144" t="s">
         <v>94</v>
@@ -5352,139 +5357,139 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B145" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C145" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="E145" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
+        <v>99</v>
+      </c>
+      <c r="B146" t="s">
+        <v>227</v>
+      </c>
+      <c r="C146" t="s">
+        <v>227</v>
+      </c>
+      <c r="E146" t="s">
         <v>97</v>
-      </c>
-      <c r="B146" t="s">
-        <v>220</v>
-      </c>
-      <c r="C146" t="s">
-        <v>220</v>
-      </c>
-      <c r="E146" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
+        <v>99</v>
+      </c>
+      <c r="B147" t="s">
+        <v>228</v>
+      </c>
+      <c r="C147" t="s">
+        <v>228</v>
+      </c>
+      <c r="E147" t="s">
         <v>97</v>
-      </c>
-      <c r="B147" t="s">
-        <v>221</v>
-      </c>
-      <c r="C147" t="s">
-        <v>221</v>
-      </c>
-      <c r="E147" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
+        <v>99</v>
+      </c>
+      <c r="B148" t="s">
+        <v>229</v>
+      </c>
+      <c r="C148" t="s">
+        <v>229</v>
+      </c>
+      <c r="E148" t="s">
         <v>97</v>
-      </c>
-      <c r="B148" t="s">
-        <v>222</v>
-      </c>
-      <c r="C148" t="s">
-        <v>222</v>
-      </c>
-      <c r="E148" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
+        <v>99</v>
+      </c>
+      <c r="B149" t="s">
+        <v>230</v>
+      </c>
+      <c r="C149" t="s">
+        <v>230</v>
+      </c>
+      <c r="E149" t="s">
         <v>97</v>
-      </c>
-      <c r="B149" t="s">
-        <v>223</v>
-      </c>
-      <c r="C149" t="s">
-        <v>223</v>
-      </c>
-      <c r="E149" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
+        <v>99</v>
+      </c>
+      <c r="B150" t="s">
+        <v>231</v>
+      </c>
+      <c r="C150" t="s">
+        <v>231</v>
+      </c>
+      <c r="E150" t="s">
         <v>97</v>
-      </c>
-      <c r="B150" t="s">
-        <v>224</v>
-      </c>
-      <c r="C150" t="s">
-        <v>224</v>
-      </c>
-      <c r="E150" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
+        <v>99</v>
+      </c>
+      <c r="B151" t="s">
+        <v>232</v>
+      </c>
+      <c r="C151" t="s">
+        <v>232</v>
+      </c>
+      <c r="E151" t="s">
         <v>97</v>
-      </c>
-      <c r="B151" t="s">
-        <v>225</v>
-      </c>
-      <c r="C151" t="s">
-        <v>225</v>
-      </c>
-      <c r="E151" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
+        <v>99</v>
+      </c>
+      <c r="B152" t="s">
+        <v>233</v>
+      </c>
+      <c r="C152" t="s">
+        <v>233</v>
+      </c>
+      <c r="E152" t="s">
         <v>97</v>
-      </c>
-      <c r="B152" t="s">
-        <v>226</v>
-      </c>
-      <c r="C152" t="s">
-        <v>226</v>
-      </c>
-      <c r="E152" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
+        <v>99</v>
+      </c>
+      <c r="B153" t="s">
+        <v>234</v>
+      </c>
+      <c r="C153" t="s">
+        <v>234</v>
+      </c>
+      <c r="E153" t="s">
         <v>97</v>
-      </c>
-      <c r="B153" t="s">
-        <v>227</v>
-      </c>
-      <c r="C153" t="s">
-        <v>227</v>
-      </c>
-      <c r="E153" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B154" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C154" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="E154" t="s">
         <v>95</v>
@@ -5492,13 +5497,13 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B155" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C155" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="E155" t="s">
         <v>95</v>
@@ -5506,13 +5511,13 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B156" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="C156" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="E156" t="s">
         <v>95</v>
@@ -5520,335 +5525,335 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B157" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="C157" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E157" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B158" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C158" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="E158" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B159" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C159" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="E159" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B160" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C160" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="E160" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B161" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="C161" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="E161" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B162" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="C162" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="E162" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B163" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="C163" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="E163" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B164" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="C164" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="E164" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B165" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="C165" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="E165" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B166" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C166" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="E166" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B167" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C167" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="E167" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B168" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="C168" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="E168" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B169" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C169" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="E169" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B170" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C170" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="E170" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B171" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C171" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="E171" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B172" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="C172" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="E172" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B173" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="C173" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="E173" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B174" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C174" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="E174" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B175" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="C175" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="E175" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B176" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C176" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E176" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B177" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C177" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="E177" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B178" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C178" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E178" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B179" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="C179" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E179" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B180" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="C180" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="E180" t="s">
         <v>89</v>
@@ -5856,13 +5861,13 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B181" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="C181" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="E181" t="s">
         <v>89</v>
@@ -5870,125 +5875,125 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B182" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C182" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="E182" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B183" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="C183" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="E183" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B184" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C184" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="E184" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B185" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C185" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="E185" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B186" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="C186" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="E186" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B187" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="C187" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="E187" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B188" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C188" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="E188" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B189" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="C189" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="E189" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B190" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C190" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="E190" t="s">
         <v>93</v>
@@ -5996,27 +6001,27 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B191" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="C191" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="E191" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B192" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="C192" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="E192" t="s">
         <v>89</v>
@@ -6024,559 +6029,559 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B193" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C193" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="E193" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B194" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="C194" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="E194" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B195" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C195" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="E195" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B196" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="C196" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="E196" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B197" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="C197" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="E197" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" t="s">
+        <v>99</v>
+      </c>
+      <c r="B198" t="s">
+        <v>279</v>
+      </c>
+      <c r="C198" t="s">
+        <v>279</v>
+      </c>
+      <c r="E198" t="s">
         <v>97</v>
-      </c>
-      <c r="B198" t="s">
-        <v>272</v>
-      </c>
-      <c r="C198" t="s">
-        <v>272</v>
-      </c>
-      <c r="E198" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" t="s">
+        <v>99</v>
+      </c>
+      <c r="B199" t="s">
+        <v>280</v>
+      </c>
+      <c r="C199" t="s">
+        <v>280</v>
+      </c>
+      <c r="E199" t="s">
         <v>97</v>
-      </c>
-      <c r="B199" t="s">
-        <v>273</v>
-      </c>
-      <c r="C199" t="s">
-        <v>273</v>
-      </c>
-      <c r="E199" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="s">
+        <v>99</v>
+      </c>
+      <c r="B200" t="s">
+        <v>281</v>
+      </c>
+      <c r="C200" t="s">
+        <v>281</v>
+      </c>
+      <c r="E200" t="s">
         <v>97</v>
-      </c>
-      <c r="B200" t="s">
-        <v>274</v>
-      </c>
-      <c r="C200" t="s">
-        <v>274</v>
-      </c>
-      <c r="E200" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B201" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C201" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="E201" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B202" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C202" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="E202" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B203" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C203" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="E203" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B204" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C204" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="E204" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B205" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C205" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="E205" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" t="s">
+        <v>99</v>
+      </c>
+      <c r="B206" t="s">
+        <v>287</v>
+      </c>
+      <c r="C206" t="s">
+        <v>287</v>
+      </c>
+      <c r="E206" t="s">
         <v>97</v>
-      </c>
-      <c r="B206" t="s">
-        <v>280</v>
-      </c>
-      <c r="C206" t="s">
-        <v>280</v>
-      </c>
-      <c r="E206" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B207" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="C207" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="E207" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B208" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="C208" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="E208" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B209" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C209" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="E209" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B210" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="C210" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="E210" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B211" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C211" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="E211" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B212" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="C212" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="E212" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B213" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C213" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="E213" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B214" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C214" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="E214" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B215" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="C215" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="E215" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B216" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C216" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="E216" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B217" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="C217" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E217" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B218" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="C218" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="E218" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B219" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="C219" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="E219" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" t="s">
+        <v>99</v>
+      </c>
+      <c r="B220" t="s">
+        <v>301</v>
+      </c>
+      <c r="C220" t="s">
+        <v>301</v>
+      </c>
+      <c r="E220" t="s">
         <v>97</v>
-      </c>
-      <c r="B220" t="s">
-        <v>294</v>
-      </c>
-      <c r="C220" t="s">
-        <v>294</v>
-      </c>
-      <c r="E220" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" t="s">
+        <v>99</v>
+      </c>
+      <c r="B221" t="s">
+        <v>302</v>
+      </c>
+      <c r="C221" t="s">
+        <v>302</v>
+      </c>
+      <c r="E221" t="s">
         <v>97</v>
-      </c>
-      <c r="B221" t="s">
-        <v>295</v>
-      </c>
-      <c r="C221" t="s">
-        <v>295</v>
-      </c>
-      <c r="E221" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" t="s">
+        <v>99</v>
+      </c>
+      <c r="B222" t="s">
+        <v>303</v>
+      </c>
+      <c r="C222" t="s">
+        <v>303</v>
+      </c>
+      <c r="E222" t="s">
         <v>97</v>
-      </c>
-      <c r="B222" t="s">
-        <v>296</v>
-      </c>
-      <c r="C222" t="s">
-        <v>296</v>
-      </c>
-      <c r="E222" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B223" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C223" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="E223" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B224" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="C224" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="E224" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B225" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="C225" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="E225" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B226" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="C226" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="E226" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B227" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="C227" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="E227" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B228" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C228" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="E228" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B229" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="C229" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E229" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B230" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="C230" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="E230" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B231" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="C231" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="E231" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B232" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C232" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="E232" t="s">
         <v>96</v>
@@ -6584,41 +6589,41 @@
     </row>
     <row r="233" spans="1:5">
       <c r="A233" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B233" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C233" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="E233" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B234" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C234" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="E234" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B235" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="C235" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="E235" t="s">
         <v>96</v>
@@ -6626,83 +6631,83 @@
     </row>
     <row r="236" spans="1:5">
       <c r="A236" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B236" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="C236" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="E236" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B237" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="C237" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="E237" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B238" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="C238" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="E238" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B239" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="C239" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="E239" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B240" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="C240" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="E240" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B241" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="C241" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="E241" t="s">
         <v>89</v>
@@ -6710,111 +6715,111 @@
     </row>
     <row r="242" spans="1:5">
       <c r="A242" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B242" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C242" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="E242" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B243" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C243" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="E243" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" t="s">
+        <v>99</v>
+      </c>
+      <c r="B244" t="s">
+        <v>325</v>
+      </c>
+      <c r="C244" t="s">
+        <v>325</v>
+      </c>
+      <c r="E244" t="s">
         <v>97</v>
-      </c>
-      <c r="B244" t="s">
-        <v>318</v>
-      </c>
-      <c r="C244" t="s">
-        <v>318</v>
-      </c>
-      <c r="E244" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" t="s">
+        <v>99</v>
+      </c>
+      <c r="B245" t="s">
+        <v>326</v>
+      </c>
+      <c r="C245" t="s">
+        <v>326</v>
+      </c>
+      <c r="E245" t="s">
         <v>97</v>
-      </c>
-      <c r="B245" t="s">
-        <v>319</v>
-      </c>
-      <c r="C245" t="s">
-        <v>319</v>
-      </c>
-      <c r="E245" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" t="s">
+        <v>99</v>
+      </c>
+      <c r="B246" t="s">
+        <v>327</v>
+      </c>
+      <c r="C246" t="s">
+        <v>327</v>
+      </c>
+      <c r="E246" t="s">
         <v>97</v>
-      </c>
-      <c r="B246" t="s">
-        <v>320</v>
-      </c>
-      <c r="C246" t="s">
-        <v>320</v>
-      </c>
-      <c r="E246" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" t="s">
+        <v>99</v>
+      </c>
+      <c r="B247" t="s">
+        <v>328</v>
+      </c>
+      <c r="C247" t="s">
+        <v>328</v>
+      </c>
+      <c r="E247" t="s">
         <v>97</v>
-      </c>
-      <c r="B247" t="s">
-        <v>321</v>
-      </c>
-      <c r="C247" t="s">
-        <v>321</v>
-      </c>
-      <c r="E247" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" t="s">
+        <v>99</v>
+      </c>
+      <c r="B248" t="s">
+        <v>329</v>
+      </c>
+      <c r="C248" t="s">
+        <v>329</v>
+      </c>
+      <c r="E248" t="s">
         <v>97</v>
-      </c>
-      <c r="B248" t="s">
-        <v>322</v>
-      </c>
-      <c r="C248" t="s">
-        <v>322</v>
-      </c>
-      <c r="E248" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B249" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="C249" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="E249" t="s">
         <v>95</v>
@@ -6822,55 +6827,55 @@
     </row>
     <row r="250" spans="1:5">
       <c r="A250" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B250" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="C250" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="E250" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B251" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="C251" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="E251" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B252" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C252" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E252" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B253" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="C253" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="E253" t="s">
         <v>95</v>
@@ -6878,1081 +6883,1011 @@
     </row>
     <row r="254" spans="1:5">
       <c r="A254" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B254" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="C254" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="E254" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B255" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="C255" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="E255" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="256" spans="1:5">
       <c r="A256" t="s">
+        <v>99</v>
+      </c>
+      <c r="B256" t="s">
+        <v>337</v>
+      </c>
+      <c r="C256" t="s">
+        <v>337</v>
+      </c>
+      <c r="E256" t="s">
         <v>97</v>
-      </c>
-      <c r="B256" t="s">
-        <v>330</v>
-      </c>
-      <c r="C256" t="s">
-        <v>330</v>
-      </c>
-      <c r="E256" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" t="s">
+        <v>99</v>
+      </c>
+      <c r="B257" t="s">
+        <v>338</v>
+      </c>
+      <c r="C257" t="s">
+        <v>338</v>
+      </c>
+      <c r="E257" t="s">
         <v>97</v>
-      </c>
-      <c r="B257" t="s">
-        <v>331</v>
-      </c>
-      <c r="C257" t="s">
-        <v>331</v>
-      </c>
-      <c r="E257" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="258" spans="1:5">
       <c r="A258" t="s">
+        <v>99</v>
+      </c>
+      <c r="B258" t="s">
+        <v>339</v>
+      </c>
+      <c r="C258" t="s">
+        <v>339</v>
+      </c>
+      <c r="E258" t="s">
         <v>97</v>
-      </c>
-      <c r="B258" t="s">
-        <v>332</v>
-      </c>
-      <c r="C258" t="s">
-        <v>332</v>
-      </c>
-      <c r="E258" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="259" spans="1:5">
       <c r="A259" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B259" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="C259" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="E259" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B260" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C260" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="E260" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B261" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="C261" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="E261" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B262" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C262" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="E262" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="263" spans="1:5">
       <c r="A263" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B263" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C263" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="E263" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B264" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="C264" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="E264" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="265" spans="1:5">
       <c r="A265" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B265" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="C265" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="E265" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="266" spans="1:5">
       <c r="A266" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B266" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="C266" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="E266" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B267" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="C267" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="E267" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="268" spans="1:5">
       <c r="A268" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B268" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="C268" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="E268" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="269" spans="1:5">
       <c r="A269" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B269" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="C269" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="E269" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="270" spans="1:5">
       <c r="A270" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B270" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C270" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="E270" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="271" spans="1:5">
       <c r="A271" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B271" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="C271" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="E271" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="272" spans="1:5">
       <c r="A272" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B272" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="C272" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="E272" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="273" spans="1:5">
       <c r="A273" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B273" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="C273" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="E273" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="274" spans="1:5">
       <c r="A274" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B274" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="C274" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="E274" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="275" spans="1:5">
       <c r="A275" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B275" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="C275" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="E275" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="276" spans="1:5">
       <c r="A276" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B276" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="C276" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="E276" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="277" spans="1:5">
       <c r="A277" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B277" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="C277" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="E277" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="278" spans="1:5">
       <c r="A278" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B278" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="C278" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="E278" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="279" spans="1:5">
       <c r="A279" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B279" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="C279" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="E279" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="280" spans="1:5">
       <c r="A280" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B280" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C280" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="E280" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="281" spans="1:5">
       <c r="A281" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B281" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C281" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="E281" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="282" spans="1:5">
       <c r="A282" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B282" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="C282" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="E282" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="283" spans="1:5">
       <c r="A283" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B283" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="C283" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="E283" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="284" spans="1:5">
       <c r="A284" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B284" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C284" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="E284" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="285" spans="1:5">
       <c r="A285" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B285" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="C285" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="E285" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="286" spans="1:5">
       <c r="A286" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B286" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="C286" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="E286" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="287" spans="1:5">
       <c r="A287" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B287" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="C287" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="E287" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="288" spans="1:5">
       <c r="A288" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B288" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="C288" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="E288" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="289" spans="1:5">
       <c r="A289" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B289" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="C289" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="E289" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="290" spans="1:5">
       <c r="A290" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B290" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="C290" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="E290" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="291" spans="1:5">
       <c r="A291" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B291" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="C291" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="E291" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="292" spans="1:5">
       <c r="A292" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B292" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="C292" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="E292" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="293" spans="1:5">
       <c r="A293" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B293" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="C293" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="E293" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="294" spans="1:5">
       <c r="A294" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B294" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="C294" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="E294" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="295" spans="1:5">
       <c r="A295" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B295" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="C295" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="E295" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="296" spans="1:5">
       <c r="A296" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B296" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="C296" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="E296" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="297" spans="1:5">
       <c r="A297" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B297" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="C297" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="E297" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="298" spans="1:5">
       <c r="A298" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B298" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="C298" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="E298" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="299" spans="1:5">
       <c r="A299" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B299" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="C299" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="E299" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="300" spans="1:5">
       <c r="A300" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B300" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="C300" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="E300" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="301" spans="1:5">
       <c r="A301" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B301" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="C301" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="E301" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="302" spans="1:5">
       <c r="A302" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B302" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="C302" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="E302" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="303" spans="1:5">
       <c r="A303" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B303" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="C303" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="E303" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="304" spans="1:5">
       <c r="A304" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B304" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C304" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="E304" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="305" spans="1:5">
       <c r="A305" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B305" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="C305" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="E305" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="306" spans="1:5">
       <c r="A306" t="s">
+        <v>99</v>
+      </c>
+      <c r="B306" t="s">
+        <v>387</v>
+      </c>
+      <c r="C306" t="s">
+        <v>387</v>
+      </c>
+      <c r="E306" t="s">
         <v>97</v>
-      </c>
-      <c r="B306" t="s">
-        <v>380</v>
-      </c>
-      <c r="C306" t="s">
-        <v>380</v>
-      </c>
-      <c r="E306" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="307" spans="1:5">
       <c r="A307" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B307" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="C307" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="E307" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="308" spans="1:5">
       <c r="A308" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B308" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="C308" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="E308" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="309" spans="1:5">
       <c r="A309" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B309" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="C309" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="E309" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="310" spans="1:5">
       <c r="A310" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B310" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="C310" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="E310" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="311" spans="1:5">
       <c r="A311" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B311" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="C311" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="E311" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="312" spans="1:5">
       <c r="A312" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B312" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="C312" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="E312" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="313" spans="1:5">
       <c r="A313" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B313" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="C313" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="E313" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="314" spans="1:5">
       <c r="A314" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B314" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="C314" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="E314" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="315" spans="1:5">
       <c r="A315" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B315" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="C315" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="E315" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="316" spans="1:5">
       <c r="A316" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B316" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="C316" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="E316" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="317" spans="1:5">
       <c r="A317" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B317" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="C317" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="E317" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="318" spans="1:5">
       <c r="A318" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B318" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="C318" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="E318" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5">
-      <c r="A319" t="s">
-        <v>97</v>
-      </c>
-      <c r="B319" t="s">
-        <v>393</v>
-      </c>
-      <c r="C319" t="s">
-        <v>393</v>
-      </c>
-      <c r="E319" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5">
-      <c r="A320" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="23" t="s">
+        <v>400</v>
       </c>
       <c r="B320" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="C320" t="s">
-        <v>394</v>
-      </c>
-      <c r="E320" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5">
-      <c r="A321" t="s">
-        <v>97</v>
+        <v>401</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="23" t="s">
+        <v>400</v>
       </c>
       <c r="B321" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="C321" t="s">
-        <v>395</v>
-      </c>
-      <c r="E321" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5">
-      <c r="A322" t="s">
-        <v>97</v>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="23" t="s">
+        <v>400</v>
       </c>
       <c r="B322" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="C322" t="s">
-        <v>396</v>
-      </c>
-      <c r="E322" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5">
-      <c r="A323" t="s">
-        <v>97</v>
-      </c>
-      <c r="B323" t="s">
-        <v>397</v>
-      </c>
-      <c r="C323" t="s">
-        <v>397</v>
-      </c>
-      <c r="E323" t="s">
-        <v>96</v>
+        <v>403</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" t="s">
+        <v>404</v>
+      </c>
+      <c r="B324" t="s">
+        <v>405</v>
+      </c>
+      <c r="C324" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="325" spans="1:3">
-      <c r="A325" s="23" t="s">
-        <v>398</v>
+      <c r="A325" t="s">
+        <v>404</v>
       </c>
       <c r="B325" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="C325" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
     </row>
     <row r="326" spans="1:3">
-      <c r="A326" s="23" t="s">
-        <v>398</v>
+      <c r="A326" t="s">
+        <v>404</v>
       </c>
       <c r="B326" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="C326" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
     </row>
     <row r="327" spans="1:3">
-      <c r="A327" s="23" t="s">
-        <v>398</v>
+      <c r="A327" t="s">
+        <v>404</v>
       </c>
       <c r="B327" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="C327" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="B329" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="C329" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="B330" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C330" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3">
-      <c r="A331" t="s">
-        <v>402</v>
-      </c>
-      <c r="B331" t="s">
-        <v>405</v>
-      </c>
-      <c r="C331" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3">
-      <c r="A332" t="s">
-        <v>402</v>
-      </c>
-      <c r="B332" t="s">
-        <v>406</v>
-      </c>
-      <c r="C332" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3">
-      <c r="A334" t="s">
-        <v>408</v>
-      </c>
-      <c r="B334" t="s">
-        <v>409</v>
-      </c>
-      <c r="C334" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3">
-      <c r="A335" t="s">
-        <v>408</v>
-      </c>
-      <c r="B335" t="s">
-        <v>399</v>
-      </c>
-      <c r="C335" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -7973,7 +7908,7 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -7985,24 +7920,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="18" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="18" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D2" s="19"/>
     </row>
@@ -8035,7 +7970,7 @@
     <row r="1" ht="104.25" customHeight="1" spans="1:2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="2" ht="143.25" customHeight="1" spans="1:2">
@@ -8043,7 +7978,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="3" ht="13.5" spans="1:2">
@@ -8056,10 +7991,10 @@
     </row>
     <row r="5" ht="24" customHeight="1" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:2">
@@ -8080,10 +8015,10 @@
     </row>
     <row r="10" ht="190.5" customHeight="1" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="11" ht="13.5" spans="1:2">
@@ -8093,7 +8028,7 @@
     <row r="12" ht="16.5" spans="1:2">
       <c r="A12" s="3"/>
       <c r="B12" s="8" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="13" ht="13.5" spans="1:2">
@@ -8122,10 +8057,10 @@
     </row>
     <row r="19" ht="174.75" customHeight="1" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="20" ht="13.5" spans="1:2">
@@ -8135,7 +8070,7 @@
     <row r="21" ht="16.5" spans="1:2">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="22" ht="13.5" spans="1:2">
@@ -8145,7 +8080,7 @@
     <row r="23" ht="16.5" spans="1:2">
       <c r="A23" s="3"/>
       <c r="B23" s="6" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="24" ht="96" customHeight="1" spans="1:2">
@@ -8153,7 +8088,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="25" ht="13.5" spans="1:2">
@@ -8163,7 +8098,7 @@
     <row r="26" ht="16.5" spans="1:2">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="27" ht="13.5" spans="1:2">
@@ -8173,7 +8108,7 @@
     <row r="28" ht="16.5" spans="1:2">
       <c r="A28" s="3"/>
       <c r="B28" s="8" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="29" ht="13.5" spans="1:2">
@@ -8187,13 +8122,13 @@
     <row r="31" ht="16.5" spans="1:2">
       <c r="A31" s="3"/>
       <c r="B31" s="6" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="32" ht="95.25" customHeight="1" spans="1:2">
       <c r="A32" s="11"/>
       <c r="B32" s="12" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="33" ht="111.75" customHeight="1" spans="1:2">
@@ -8201,7 +8136,7 @@
         <v>10</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="34" ht="13.5" spans="1:2">
@@ -8211,7 +8146,7 @@
     <row r="35" ht="16.5" spans="1:2">
       <c r="A35" s="13"/>
       <c r="B35" s="16" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="36" ht="143.25" customHeight="1" spans="1:2">
@@ -8219,7 +8154,7 @@
         <v>11</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="37" ht="13.5" spans="1:2">
@@ -8229,7 +8164,7 @@
     <row r="38" ht="16.5" spans="1:2">
       <c r="A38" s="13"/>
       <c r="B38" s="16" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="39" ht="143.25" customHeight="1" spans="1:2">
@@ -8237,7 +8172,7 @@
         <v>12</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="40" ht="13.5" spans="1:2">
@@ -8247,7 +8182,7 @@
     <row r="41" ht="16.5" spans="1:2">
       <c r="A41" s="13"/>
       <c r="B41" s="16" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="42" ht="143.25" customHeight="1" spans="1:2">
@@ -8255,7 +8190,7 @@
         <v>13</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="43" ht="13.5" spans="1:2">
@@ -8265,7 +8200,7 @@
     <row r="44" ht="16.5" spans="1:2">
       <c r="A44" s="13"/>
       <c r="B44" s="16" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="45" ht="143.25" customHeight="1" spans="1:2">
@@ -8273,7 +8208,7 @@
         <v>14</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="46" ht="13.5" spans="1:2">
@@ -8283,7 +8218,7 @@
     <row r="47" ht="16.5" spans="1:2">
       <c r="A47" s="13"/>
       <c r="B47" s="16" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="48" ht="143.25" customHeight="1" spans="1:2">
@@ -8291,7 +8226,7 @@
         <v>15</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="49" ht="13.5" spans="1:2">
@@ -8301,7 +8236,7 @@
     <row r="50" ht="16.5" spans="1:2">
       <c r="A50" s="13"/>
       <c r="B50" s="16" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="51" ht="143.25" customHeight="1" spans="1:2">
@@ -8309,7 +8244,7 @@
         <v>16</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="52" ht="13.5" spans="1:2">
@@ -8319,7 +8254,7 @@
     <row r="53" ht="16.5" spans="1:2">
       <c r="A53" s="13"/>
       <c r="B53" s="16" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="54" ht="29.25" spans="1:2">
@@ -8327,7 +8262,7 @@
         <v>17</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>

--- a/Coverage Survey/Ethiopia/et_ces_sch_sth_2_hh_202111.xlsx
+++ b/Coverage Survey/Ethiopia/et_ces_sch_sth_2_hh_202111.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\Coverage Survey\Ethiopia\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DA2594-9CC9-4D6F-9D71-A4C980F4575F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12345"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="144525" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="418">
   <si>
     <t>type</t>
   </si>
@@ -1271,470 +1276,16 @@
   </si>
   <si>
     <t>English</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Coverage Survey – Household Form </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>To be answered by the interviewer</t>
-    </r>
-  </si>
-  <si>
-    <t>What number house is this for you in the kebele segment?</t>
-  </si>
-  <si>
-    <t>8a</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Are you able to interview this house? </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(Tick one box)</t>
-    </r>
-  </si>
-  <si>
-    <t>8b</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>If you are not able to interview this house</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>: Reason why household not interviewed</t>
-    </r>
-  </si>
-  <si>
-    <t>(Tick one box)</t>
-  </si>
-  <si>
-    <t>8c</t>
-  </si>
-  <si>
-    <t>If you’re not able to interview this house and the reason is ‘other’</t>
-  </si>
-  <si>
-    <t>Reason not interviewed: other</t>
-  </si>
-  <si>
-    <t>(Enter reason)</t>
-  </si>
-  <si>
-    <t>If you are able to interview this house:</t>
-  </si>
-  <si>
-    <t>Consent form signed by Head of House?</t>
-  </si>
-  <si>
-    <t>Enter GPS location</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">To be answered by the interviewee </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Household head or other adult</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">How many </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>people</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> live in this household?</t>
-    </r>
-  </si>
-  <si>
-    <t>(Enter one number)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">How many </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>adult males</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> live in this house (15 or older)?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">How many </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>adult females</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> live in this house (15 or older)?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">How many </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>boys</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> live in this house (5-14 years old)?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">How many </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>girls</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> live in this house (5-14 years old)?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">How many </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>boys</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> live in this house (2-4 years old)?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">How many </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>girls</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> live in this house (2-4 years old)?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Notes about household interview </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Answered by interviewer</t>
-    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="34">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1754,180 +1305,8 @@
       <name val="Arial"/>
       <charset val="1"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1936,210 +1315,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF1F1F1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2147,436 +1328,46 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2834,377 +1625,378 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.425" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.41015625" defaultRowHeight="12.7"/>
   <cols>
-    <col min="1" max="1" width="19.7083333333333" customWidth="1"/>
+    <col min="1" max="1" width="19.703125" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="4" width="45.875" customWidth="1"/>
-    <col min="5" max="5" width="25.2833333333333" customWidth="1"/>
+    <col min="3" max="4" width="45.87890625" customWidth="1"/>
+    <col min="5" max="5" width="25.29296875" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="16.2833333333333" customWidth="1"/>
-    <col min="8" max="8" width="28.5666666666667" customWidth="1"/>
-    <col min="9" max="9" width="12.375" customWidth="1"/>
-    <col min="10" max="10" width="22.25" customWidth="1"/>
-    <col min="11" max="11" width="11.375" customWidth="1"/>
-    <col min="12" max="12" width="16.7083333333333" customWidth="1"/>
+    <col min="7" max="7" width="16.29296875" customWidth="1"/>
+    <col min="8" max="8" width="28.5859375" customWidth="1"/>
+    <col min="9" max="9" width="12.3515625" customWidth="1"/>
+    <col min="10" max="10" width="22.234375" customWidth="1"/>
+    <col min="11" max="11" width="11.3515625" customWidth="1"/>
+    <col min="12" max="12" width="16.703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="24" customFormat="1" spans="1:13">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:13" s="7" customFormat="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:13">
+      <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:13">
+      <c r="A3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:13">
+      <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="F4" s="26" t="s">
+      <c r="D4" s="11"/>
+      <c r="F4" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:13">
+      <c r="A5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="F5" s="26" t="s">
+      <c r="D5" s="11"/>
+      <c r="F5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="31" t="s">
+      <c r="L5" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" s="25" customFormat="1" spans="1:12">
-      <c r="A6" s="26" t="s">
+    <row r="6" spans="1:13" s="8" customFormat="1">
+      <c r="A6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="F6" s="26" t="s">
+      <c r="D6" s="11"/>
+      <c r="F6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="31" t="s">
+      <c r="G6" s="13"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" s="25" customFormat="1" spans="1:11">
-      <c r="A7" s="26" t="s">
+    <row r="7" spans="1:13" s="8" customFormat="1">
+      <c r="A7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-    </row>
-    <row r="8" s="25" customFormat="1" spans="1:12">
-      <c r="A8" s="26" t="s">
+      <c r="D7" s="11"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" s="8" customFormat="1">
+      <c r="A8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="31"/>
-    </row>
-    <row r="9" ht="25.5" spans="1:6">
-      <c r="A9" s="26" t="s">
+      <c r="D8" s="11"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" spans="1:13" ht="25.35">
+      <c r="A9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="F9" s="26" t="s">
+      <c r="D9" s="11"/>
+      <c r="F9" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="26" t="s">
+    <row r="10" spans="1:13">
+      <c r="A10" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="F10" s="26" t="s">
+      <c r="D10" s="11"/>
+      <c r="F10" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" ht="25.5" spans="1:10">
-      <c r="A11" s="26" t="s">
+    <row r="11" spans="1:13" ht="25.35">
+      <c r="A11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="F11" s="26" t="s">
+      <c r="D11" s="12"/>
+      <c r="F11" s="9" t="s">
         <v>15</v>
       </c>
       <c r="J11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" ht="25.5" spans="1:10">
+    <row r="12" spans="1:13" ht="25.35">
       <c r="A12" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="F12" s="26" t="s">
+      <c r="D12" s="12"/>
+      <c r="F12" s="9" t="s">
         <v>15</v>
       </c>
       <c r="J12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" ht="25.5" spans="1:11">
+    <row r="13" spans="1:13" ht="25.35">
       <c r="A13" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="F13" s="26" t="s">
+      <c r="D13" s="12"/>
+      <c r="F13" s="9" t="s">
         <v>15</v>
       </c>
       <c r="J13" t="s">
         <v>51</v>
       </c>
-      <c r="K13" s="22"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="26" t="s">
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="F14" s="26" t="s">
+      <c r="D14" s="12"/>
+      <c r="F14" s="9" t="s">
         <v>15</v>
       </c>
       <c r="J14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" ht="25.5" spans="1:10">
-      <c r="A15" s="26" t="s">
+    <row r="15" spans="1:13" ht="25.35">
+      <c r="A15" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="F15" s="26" t="s">
+      <c r="D15" s="12"/>
+      <c r="F15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="26"/>
+      <c r="G15" s="9"/>
       <c r="J15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" ht="25.5" spans="1:10">
-      <c r="A16" s="22" t="s">
+    <row r="16" spans="1:13" ht="25.35">
+      <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="F16" s="26" t="s">
+      <c r="D16" s="12"/>
+      <c r="F16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="22"/>
+      <c r="G16" s="5"/>
       <c r="J16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" ht="25.5" spans="1:10">
-      <c r="A17" s="22" t="s">
+    <row r="17" spans="1:13" ht="25.35">
+      <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="F17" s="26" t="s">
+      <c r="D17" s="12"/>
+      <c r="F17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="22"/>
+      <c r="G17" s="5"/>
       <c r="J17" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="F18" s="26" t="s">
+      <c r="D18" s="12"/>
+      <c r="F18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="22"/>
+      <c r="G18" s="5"/>
       <c r="J18" t="s">
         <v>55</v>
       </c>
@@ -3215,92 +2007,92 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="22" t="s">
+    <row r="19" spans="1:13">
+      <c r="A19" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B19" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="F19" s="26" t="s">
+      <c r="D19" s="12"/>
+      <c r="F19" s="9" t="s">
         <v>15</v>
       </c>
       <c r="J19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="22" t="s">
+    <row r="20" spans="1:13">
+      <c r="A20" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B20" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="F20" s="26" t="s">
+      <c r="D20" s="12"/>
+      <c r="F20" s="9" t="s">
         <v>15</v>
       </c>
       <c r="J20" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="22" t="s">
+    <row r="21" spans="1:13">
+      <c r="A21" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="29"/>
-      <c r="F21" s="26" t="s">
+      <c r="D21" s="12"/>
+      <c r="F21" s="9" t="s">
         <v>15</v>
       </c>
       <c r="J21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="22" t="s">
+    <row r="22" spans="1:13">
+      <c r="A22" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B22" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="29"/>
-      <c r="F22" s="26" t="s">
+      <c r="D22" s="12"/>
+      <c r="F22" s="9" t="s">
         <v>15</v>
       </c>
       <c r="J22" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" ht="25.5" spans="1:6">
+    <row r="23" spans="1:13" ht="25.35">
       <c r="A23" t="s">
         <v>74</v>
       </c>
       <c r="B23" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="29"/>
-      <c r="F23" s="26"/>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="D23" s="12"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -3308,7 +2100,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>79</v>
       </c>
@@ -3328,130 +2120,129 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:G330"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="$A7:$XFD11"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.425" defaultRowHeight="12.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="11.41015625" defaultRowHeight="12.7"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="4" width="19.8583333333333" customWidth="1"/>
-    <col min="5" max="5" width="13.2833333333333" customWidth="1"/>
+    <col min="1" max="1" width="17.46875" customWidth="1"/>
+    <col min="2" max="4" width="19.87890625" customWidth="1"/>
+    <col min="5" max="5" width="13.29296875" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="1" spans="1:7">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:7" s="3" customFormat="1">
+      <c r="A1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-    </row>
-    <row r="2" s="19" customFormat="1" spans="1:7">
-      <c r="A2" s="22" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1">
+      <c r="A2" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-    </row>
-    <row r="3" s="19" customFormat="1" spans="1:7">
-      <c r="A3" s="22" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1">
+      <c r="A3" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-    </row>
-    <row r="4" s="19" customFormat="1" spans="1:7">
-      <c r="A4" s="22" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1">
+      <c r="A4" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-    </row>
-    <row r="5" s="19" customFormat="1" spans="1:7">
-      <c r="A5" s="22" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1">
+      <c r="A5" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-    </row>
-    <row r="6" s="19" customFormat="1" spans="1:7">
-      <c r="A6" s="22" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1">
+      <c r="A6" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" s="19" customFormat="1" spans="1:7">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>83</v>
       </c>
@@ -3465,7 +2256,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>83</v>
       </c>
@@ -3479,7 +2270,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -3493,7 +2284,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -3507,7 +2298,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -3521,7 +2312,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -3535,7 +2326,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -3549,7 +2340,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -3563,7 +2354,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -3577,7 +2368,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -7791,8 +6582,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
-      <c r="A320" s="23" t="s">
+    <row r="320" spans="1:5">
+      <c r="A320" s="6" t="s">
         <v>400</v>
       </c>
       <c r="B320" t="s">
@@ -7803,7 +6594,7 @@
       </c>
     </row>
     <row r="321" spans="1:3">
-      <c r="A321" s="23" t="s">
+      <c r="A321" s="6" t="s">
         <v>400</v>
       </c>
       <c r="B321" t="s">
@@ -7814,7 +6605,7 @@
       </c>
     </row>
     <row r="322" spans="1:3">
-      <c r="A322" s="23" t="s">
+      <c r="A322" s="6" t="s">
         <v>400</v>
       </c>
       <c r="B322" t="s">
@@ -7902,7 +6693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -7912,14 +6703,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.425" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11.41015625" defaultRowHeight="12.7"/>
   <cols>
     <col min="1" max="1" width="55" customWidth="1"/>
-    <col min="2" max="2" width="45.425" customWidth="1"/>
+    <col min="2" max="2" width="45.41015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>412</v>
       </c>
       <c r="B1" t="s">
@@ -7930,7 +6721,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="1" t="s">
         <v>415</v>
       </c>
       <c r="B2" t="s">
@@ -7939,7 +6730,7 @@
       <c r="C2" t="s">
         <v>417</v>
       </c>
-      <c r="D2" s="19"/>
+      <c r="D2" s="2"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -7950,337 +6741,4 @@
     <oddFooter>&amp;C&amp;F</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B54"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="4.125" customWidth="1"/>
-    <col min="2" max="2" width="52.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="104.25" customHeight="1" spans="1:2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="2" ht="143.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3">
-        <v>7</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="3" ht="13.5" spans="1:2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" ht="16.5" spans="1:2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" ht="24" customHeight="1" spans="1:2">
-      <c r="A5" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="6" ht="16.5" spans="1:2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" ht="16.5" spans="1:2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" ht="16.5" spans="1:2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" ht="16.5" spans="1:2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="7"/>
-    </row>
-    <row r="10" ht="190.5" customHeight="1" spans="1:2">
-      <c r="A10" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="11" ht="13.5" spans="1:2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="5"/>
-    </row>
-    <row r="12" ht="16.5" spans="1:2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="8" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="13" ht="13.5" spans="1:2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" ht="16.5" spans="1:2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" ht="13.5" spans="1:2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="5"/>
-    </row>
-    <row r="16" ht="13.5" spans="1:2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" ht="13.5" spans="1:2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="5"/>
-    </row>
-    <row r="18" ht="13.5" spans="1:2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="9"/>
-    </row>
-    <row r="19" ht="174.75" customHeight="1" spans="1:2">
-      <c r="A19" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="20" ht="13.5" spans="1:2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="5"/>
-    </row>
-    <row r="21" ht="16.5" spans="1:2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="22" ht="13.5" spans="1:2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="5"/>
-    </row>
-    <row r="23" ht="16.5" spans="1:2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="6" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="24" ht="96" customHeight="1" spans="1:2">
-      <c r="A24" s="3">
-        <v>9</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="25" ht="13.5" spans="1:2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="5"/>
-    </row>
-    <row r="26" ht="16.5" spans="1:2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="27" ht="13.5" spans="1:2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="5"/>
-    </row>
-    <row r="28" ht="16.5" spans="1:2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="8" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="29" ht="13.5" spans="1:2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="5"/>
-    </row>
-    <row r="30" ht="16.5" spans="1:2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="10"/>
-    </row>
-    <row r="31" ht="16.5" spans="1:2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="6" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="32" ht="95.25" customHeight="1" spans="1:2">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="33" ht="111.75" customHeight="1" spans="1:2">
-      <c r="A33" s="13">
-        <v>10</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="34" ht="13.5" spans="1:2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="15"/>
-    </row>
-    <row r="35" ht="16.5" spans="1:2">
-      <c r="A35" s="13"/>
-      <c r="B35" s="16" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="36" ht="143.25" customHeight="1" spans="1:2">
-      <c r="A36" s="13">
-        <v>11</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="37" ht="13.5" spans="1:2">
-      <c r="A37" s="13"/>
-      <c r="B37" s="15"/>
-    </row>
-    <row r="38" ht="16.5" spans="1:2">
-      <c r="A38" s="13"/>
-      <c r="B38" s="16" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="39" ht="143.25" customHeight="1" spans="1:2">
-      <c r="A39" s="13">
-        <v>12</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="40" ht="13.5" spans="1:2">
-      <c r="A40" s="13"/>
-      <c r="B40" s="15"/>
-    </row>
-    <row r="41" ht="16.5" spans="1:2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="16" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="42" ht="143.25" customHeight="1" spans="1:2">
-      <c r="A42" s="13">
-        <v>13</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="43" ht="13.5" spans="1:2">
-      <c r="A43" s="13"/>
-      <c r="B43" s="15"/>
-    </row>
-    <row r="44" ht="16.5" spans="1:2">
-      <c r="A44" s="13"/>
-      <c r="B44" s="16" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="45" ht="143.25" customHeight="1" spans="1:2">
-      <c r="A45" s="13">
-        <v>14</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="46" ht="13.5" spans="1:2">
-      <c r="A46" s="13"/>
-      <c r="B46" s="15"/>
-    </row>
-    <row r="47" ht="16.5" spans="1:2">
-      <c r="A47" s="13"/>
-      <c r="B47" s="16" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="48" ht="143.25" customHeight="1" spans="1:2">
-      <c r="A48" s="13">
-        <v>15</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="49" ht="13.5" spans="1:2">
-      <c r="A49" s="13"/>
-      <c r="B49" s="15"/>
-    </row>
-    <row r="50" ht="16.5" spans="1:2">
-      <c r="A50" s="13"/>
-      <c r="B50" s="16" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="51" ht="143.25" customHeight="1" spans="1:2">
-      <c r="A51" s="13">
-        <v>16</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="52" ht="13.5" spans="1:2">
-      <c r="A52" s="13"/>
-      <c r="B52" s="15"/>
-    </row>
-    <row r="53" ht="16.5" spans="1:2">
-      <c r="A53" s="13"/>
-      <c r="B53" s="16" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="54" ht="29.25" spans="1:2">
-      <c r="A54" s="13">
-        <v>17</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>441</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/Coverage Survey/Ethiopia/et_ces_sch_sth_2_hh_202111.xlsx
+++ b/Coverage Survey/Ethiopia/et_ces_sch_sth_2_hh_202111.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\Coverage Survey\Ethiopia\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DA2594-9CC9-4D6F-9D71-A4C980F4575F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12345" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" calcOnSave="0"/>
+  <calcPr calcId="144525" calcCompleted="0" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="465">
   <si>
     <t>type</t>
   </si>
@@ -84,7 +78,7 @@
     <t>. &gt; 9 and . &lt; 100</t>
   </si>
   <si>
-    <t>select_one region</t>
+    <t>string</t>
   </si>
   <si>
     <t>h_region</t>
@@ -93,33 +87,18 @@
     <t>H3. Region Name</t>
   </si>
   <si>
-    <t>select_one woreda</t>
-  </si>
-  <si>
     <t>h_woreda</t>
   </si>
   <si>
     <t xml:space="preserve">H4. Woreda name </t>
   </si>
   <si>
-    <t>region = ${h_region}</t>
-  </si>
-  <si>
-    <t>select_one kebele</t>
-  </si>
-  <si>
     <t>h_kebele</t>
   </si>
   <si>
     <t>H5.a. Kebele name</t>
   </si>
   <si>
-    <t>woreda = ${h_woreda}</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>h_village</t>
   </si>
   <si>
@@ -246,6 +225,121 @@
     <t>16 How many girls live in this house (2-4 years old)? </t>
   </si>
   <si>
+    <t>h_ads2</t>
+  </si>
+  <si>
+    <t>Equity questions</t>
+  </si>
+  <si>
+    <t>e_electricity</t>
+  </si>
+  <si>
+    <t>E1. Does your household have Electricity?</t>
+  </si>
+  <si>
+    <t>e_radio</t>
+  </si>
+  <si>
+    <t>E2. Does your household have a radio?</t>
+  </si>
+  <si>
+    <t>e_tv</t>
+  </si>
+  <si>
+    <t>E3. Does your household have a television?</t>
+  </si>
+  <si>
+    <t>e_freeser</t>
+  </si>
+  <si>
+    <t>E4. Does your household have a refrigerator ?</t>
+  </si>
+  <si>
+    <t>e_mitad</t>
+  </si>
+  <si>
+    <t>E5. Does your household have Electric Mitad?</t>
+  </si>
+  <si>
+    <t>e_table</t>
+  </si>
+  <si>
+    <t>E6. Does your household have a table?</t>
+  </si>
+  <si>
+    <t>e_chair</t>
+  </si>
+  <si>
+    <t>E7. Does your household have a chair?</t>
+  </si>
+  <si>
+    <t>e_bed</t>
+  </si>
+  <si>
+    <t>E8. Does your household have a bed with cotton/sponge/spring mattress?</t>
+  </si>
+  <si>
+    <t>e_bank_account</t>
+  </si>
+  <si>
+    <t>E9. Does a member of the household have a bank account?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one water_src
+</t>
+  </si>
+  <si>
+    <t>e_water_src</t>
+  </si>
+  <si>
+    <t>E10. What is the main source of drinking water for the members of the household?</t>
+  </si>
+  <si>
+    <t>select_one toilet_type</t>
+  </si>
+  <si>
+    <t>e_toilet</t>
+  </si>
+  <si>
+    <t>E11. What kind of toilet facility do members of your household usually use?</t>
+  </si>
+  <si>
+    <t>select_one fuel_type</t>
+  </si>
+  <si>
+    <t>e_fuel_cooking</t>
+  </si>
+  <si>
+    <t>E12. What type of fuel does your household mainly use for cooking?</t>
+  </si>
+  <si>
+    <t>select_one main_material</t>
+  </si>
+  <si>
+    <t>e_floor_material</t>
+  </si>
+  <si>
+    <t>E13. What is the main material of the floor in your household?</t>
+  </si>
+  <si>
+    <t>select_one wall_material</t>
+  </si>
+  <si>
+    <t>e_wall_material</t>
+  </si>
+  <si>
+    <t>E14. What is the main material of the exterior walls in your household?</t>
+  </si>
+  <si>
+    <t>select_one floor_material</t>
+  </si>
+  <si>
+    <t>e_roof_material</t>
+  </si>
+  <si>
+    <t>E15. What is the main material of the roof in your household?</t>
+  </si>
+  <si>
     <t>text</t>
   </si>
   <si>
@@ -276,6 +370,84 @@
     <t>woreda</t>
   </si>
   <si>
+    <t>yes_no</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>water_src</t>
+  </si>
+  <si>
+    <t>Piped to Yard/plot</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>toilet_type</t>
+  </si>
+  <si>
+    <t>Pit latrine without slab/open pit</t>
+  </si>
+  <si>
+    <t>No facility/bush/field</t>
+  </si>
+  <si>
+    <t>fuel_type</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>main_material</t>
+  </si>
+  <si>
+    <t>Earth/Sand</t>
+  </si>
+  <si>
+    <t>wall_material</t>
+  </si>
+  <si>
+    <t>Bamboo with mud</t>
+  </si>
+  <si>
+    <t>floor_material</t>
+  </si>
+  <si>
+    <t>Metal/corrugated iron</t>
+  </si>
+  <si>
+    <t>interviewed_house</t>
+  </si>
+  <si>
+    <t>Yes on first visit</t>
+  </si>
+  <si>
+    <t>Yes on second visit</t>
+  </si>
+  <si>
+    <t>not_interviewed_reason</t>
+  </si>
+  <si>
+    <t>Nobody home</t>
+  </si>
+  <si>
+    <t>Refused to participate</t>
+  </si>
+  <si>
+    <t>Household not found or destroyed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other </t>
+  </si>
+  <si>
     <t>Amhara</t>
   </si>
   <si>
@@ -1224,42 +1396,6 @@
     <t>Zemenbirhan 5</t>
   </si>
   <si>
-    <t>interviewed_house</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes on first visit</t>
-  </si>
-  <si>
-    <t>Yes on second visit</t>
-  </si>
-  <si>
-    <t>not_interviewed_reason</t>
-  </si>
-  <si>
-    <t>Nobody home</t>
-  </si>
-  <si>
-    <t>Refused to participate</t>
-  </si>
-  <si>
-    <t>Household not found or destroyed</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other </t>
-  </si>
-  <si>
-    <t>yes_no</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>form_title</t>
   </si>
   <si>
@@ -1269,10 +1405,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Nov 2021) Coverage Survey - 2. Household Form</t>
-  </si>
-  <si>
-    <t>et_ces_sch_sth_2_hh_202111</t>
+    <t>(Nov 2021) Coverage Survey - 2. Household Form V2</t>
+  </si>
+  <si>
+    <t>et_ces_sch_sth_2_hh_202111_v2</t>
   </si>
   <si>
     <t>English</t>
@@ -1281,8 +1417,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1305,8 +1447,159 @@
       <name val="Arial"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1319,8 +1612,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1328,11 +1807,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1340,8 +2061,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1357,17 +2079,61 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1625,37 +2391,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.41015625" defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="11.4083333333333" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="19.703125" customWidth="1"/>
+    <col min="1" max="1" width="19.7" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="4" width="45.87890625" customWidth="1"/>
-    <col min="5" max="5" width="25.29296875" customWidth="1"/>
+    <col min="3" max="4" width="45.875" customWidth="1"/>
+    <col min="5" max="5" width="25.2916666666667" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="16.29296875" customWidth="1"/>
-    <col min="8" max="8" width="28.5859375" customWidth="1"/>
-    <col min="9" max="9" width="12.3515625" customWidth="1"/>
-    <col min="10" max="10" width="22.234375" customWidth="1"/>
-    <col min="11" max="11" width="11.3515625" customWidth="1"/>
-    <col min="12" max="12" width="16.703125" customWidth="1"/>
+    <col min="7" max="7" width="16.2916666666667" customWidth="1"/>
+    <col min="8" max="8" width="28.5833333333333" customWidth="1"/>
+    <col min="9" max="9" width="12.35" customWidth="1"/>
+    <col min="10" max="10" width="22.2333333333333" customWidth="1"/>
+    <col min="11" max="11" width="11.35" customWidth="1"/>
+    <col min="12" max="12" width="16.7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1">
+    <row r="1" s="8" customFormat="1" spans="1:13">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1672,440 +2437,726 @@
       <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="F4" s="9" t="s">
+      <c r="D4" s="12"/>
+      <c r="F4" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:12">
+      <c r="A5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="12"/>
+      <c r="F5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="15"/>
+    </row>
+    <row r="6" s="9" customFormat="1" spans="1:12">
+      <c r="A6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="F5" s="9" t="s">
+      <c r="C6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="F6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="8" customFormat="1">
-      <c r="A6" s="9" t="s">
+      <c r="G6" s="14"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="15"/>
+    </row>
+    <row r="7" s="9" customFormat="1" spans="1:11">
+      <c r="A7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D7" s="12"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" s="9" customFormat="1" spans="1:12">
+      <c r="A8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="F6" s="9" t="s">
+      <c r="C8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" ht="25.5" spans="1:6">
+      <c r="A9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="8" customFormat="1">
-      <c r="A7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="10" t="s">
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:13" s="8" customFormat="1">
-      <c r="A8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="14"/>
-    </row>
-    <row r="9" spans="1:13" ht="25.35">
-      <c r="A9" s="9" t="s">
+      <c r="D10" s="12"/>
+      <c r="F10" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" spans="1:10">
+      <c r="A11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="F11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" spans="1:10">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="F12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" ht="25.5" spans="1:11">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="F13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="F14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" ht="25.5" spans="1:10">
+      <c r="A15" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="J15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" spans="1:10">
+      <c r="A16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="F9" s="9" t="s">
+      <c r="B16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="F16" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="F10" s="9" t="s">
+      <c r="G16" s="7"/>
+      <c r="J16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" spans="1:10">
+      <c r="A17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="F17" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="25.35">
-      <c r="A11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="F11" s="9" t="s">
+      <c r="G17" s="7"/>
+      <c r="J17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="F18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="25.35">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="F12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="25.35">
-      <c r="A13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="12" t="s">
+      <c r="G18" s="7"/>
+      <c r="J18" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="F13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" t="s">
-        <v>51</v>
-      </c>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="F14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="25.35">
-      <c r="A15" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="F15" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="J15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="25.35">
-      <c r="A16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="12" t="s">
+      <c r="K18" t="s">
         <v>60</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="F16" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="J16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="25.35">
-      <c r="A17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="F17" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="J17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="F18" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="5"/>
-      <c r="J18" t="s">
-        <v>55</v>
-      </c>
-      <c r="K18" t="s">
-        <v>65</v>
       </c>
       <c r="M18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:10">
+      <c r="A19" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="F19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="F20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="D21" s="13"/>
+      <c r="F21" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="F19" s="9" t="s">
+      <c r="C22" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="F22" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="12" t="s">
+      <c r="J22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="7"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="F20" s="9" t="s">
+      <c r="C24" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="7"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" customFormat="1" spans="1:6">
+      <c r="A26" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="F21" s="9" t="s">
+    </row>
+    <row r="27" customFormat="1" spans="1:6">
+      <c r="A27" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="F22" s="9" t="s">
+    </row>
+    <row r="28" customFormat="1" spans="1:6">
+      <c r="A28" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28"/>
+      <c r="F28" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="25.35">
-      <c r="A23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="12"/>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" t="s">
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C29" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" t="s">
+      <c r="D29" s="12"/>
+      <c r="F29" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L29" s="15"/>
+    </row>
+    <row r="30" s="9" customFormat="1" spans="1:12">
+      <c r="A30" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C30" s="11" t="s">
         <v>80</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="F30" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="15"/>
+    </row>
+    <row r="31" s="9" customFormat="1" spans="1:11">
+      <c r="A31" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="F31" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+    </row>
+    <row r="32" s="9" customFormat="1" spans="1:12">
+      <c r="A32" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="F32" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="14"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="15"/>
+    </row>
+    <row r="33" customFormat="1" ht="25.5" spans="1:6">
+      <c r="A33" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33"/>
+      <c r="F33" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" ht="25.5" spans="1:6">
+      <c r="A34" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34"/>
+      <c r="F34" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" ht="25.5" spans="1:6">
+      <c r="A35" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="13"/>
+      <c r="E35"/>
+      <c r="F35" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" ht="25.5" spans="1:6">
+      <c r="A36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="13"/>
+      <c r="E36"/>
+      <c r="F36" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" ht="25.5" spans="1:11">
+      <c r="A37" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37"/>
+      <c r="F37" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="7"/>
+    </row>
+    <row r="38" customFormat="1" ht="25.5" spans="1:6">
+      <c r="A38" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="13"/>
+      <c r="E38"/>
+      <c r="F38" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" ht="25.5" spans="1:7">
+      <c r="A39" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="13"/>
+      <c r="E39"/>
+      <c r="F39" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" customFormat="1" ht="25.5" spans="1:7">
+      <c r="A40" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40"/>
+      <c r="F40" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="7"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" ht="25.5" spans="1:6">
+      <c r="A42" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="13"/>
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2120,28 +3171,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G330"/>
+  <dimension ref="A1:G350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="$A34:$XFD34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.41015625" defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="11.4083333333333" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="17.46875" customWidth="1"/>
-    <col min="2" max="4" width="19.87890625" customWidth="1"/>
-    <col min="5" max="5" width="13.29296875" customWidth="1"/>
+    <col min="1" max="1" width="17.4666666666667" customWidth="1"/>
+    <col min="2" max="4" width="19.875" customWidth="1"/>
+    <col min="5" max="5" width="13.2916666666667" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1">
+    <row r="1" s="3" customFormat="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -2150,4535 +3202,4713 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1">
-      <c r="A2" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1">
-      <c r="A3" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" s="2" customFormat="1">
-      <c r="A4" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" s="2" customFormat="1">
-      <c r="A5" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" s="2" customFormat="1">
-      <c r="A6" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" s="2" customFormat="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7">
+    <row r="2" customFormat="1" spans="1:3">
+      <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:3">
+      <c r="A3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1"/>
+    <row r="5" customFormat="1" spans="1:3">
+      <c r="A5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:3">
+      <c r="A6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1"/>
+    <row r="8" customFormat="1" spans="1:3">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:3">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:3">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1"/>
+    <row r="12" customFormat="1" spans="1:3">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:3">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:3">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1"/>
+    <row r="16" customFormat="1" spans="1:3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:3">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1"/>
+    <row r="19" customFormat="1" spans="1:3">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:3">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
-      </c>
-      <c r="E20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" t="s">
-        <v>102</v>
-      </c>
-      <c r="C21" t="s">
-        <v>102</v>
-      </c>
-      <c r="E21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1"/>
+    <row r="22" customFormat="1" spans="1:3">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
-      </c>
-      <c r="E22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:3">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
-      </c>
-      <c r="E23" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" t="s">
-        <v>105</v>
-      </c>
-      <c r="E24" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>99</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" s="3" customFormat="1" spans="1:7">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C25" t="s">
-        <v>106</v>
-      </c>
-      <c r="E25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>99</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
-      </c>
-      <c r="E26" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>99</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="B27" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
-      </c>
-      <c r="E27" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" t="s">
-        <v>109</v>
-      </c>
-      <c r="C28" t="s">
-        <v>109</v>
-      </c>
-      <c r="E28" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="C29" t="s">
-        <v>110</v>
-      </c>
-      <c r="E29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="B30" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="C30" t="s">
-        <v>111</v>
-      </c>
-      <c r="E30" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="B31" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
-      </c>
-      <c r="E31" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="B32" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
-      </c>
-      <c r="E32" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B33" t="s">
-        <v>114</v>
-      </c>
-      <c r="C33" t="s">
-        <v>114</v>
-      </c>
-      <c r="E33" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B34" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" s="3" customFormat="1" spans="1:7">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" s="2" customFormat="1" spans="1:7">
+      <c r="A34" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C34" t="s">
+      <c r="B34" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" s="2" customFormat="1" spans="1:7">
+      <c r="A35" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E34" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
-        <v>99</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="B35" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" s="2" customFormat="1" spans="1:7">
+      <c r="A36" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" s="2" customFormat="1" spans="1:7">
+      <c r="A37" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" s="2" customFormat="1" spans="1:7">
+      <c r="A38" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" s="2" customFormat="1" spans="1:7">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
         <v>116</v>
       </c>
-      <c r="C35" t="s">
+      <c r="B40" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" t="s">
+        <v>148</v>
+      </c>
+      <c r="D40" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
         <v>116</v>
       </c>
-      <c r="E35" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>99</v>
-      </c>
-      <c r="B36" t="s">
-        <v>117</v>
-      </c>
-      <c r="C36" t="s">
-        <v>117</v>
-      </c>
-      <c r="E36" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>99</v>
-      </c>
-      <c r="B37" t="s">
-        <v>118</v>
-      </c>
-      <c r="C37" t="s">
-        <v>118</v>
-      </c>
-      <c r="E37" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>99</v>
-      </c>
-      <c r="B38" t="s">
-        <v>119</v>
-      </c>
-      <c r="C38" t="s">
-        <v>119</v>
-      </c>
-      <c r="E38" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>99</v>
-      </c>
-      <c r="B39" t="s">
-        <v>120</v>
-      </c>
-      <c r="C39" t="s">
-        <v>120</v>
-      </c>
-      <c r="E39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
-        <v>99</v>
-      </c>
-      <c r="B40" t="s">
-        <v>121</v>
-      </c>
-      <c r="C40" t="s">
-        <v>121</v>
-      </c>
-      <c r="E40" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>99</v>
-      </c>
       <c r="B41" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="C41" t="s">
-        <v>122</v>
-      </c>
-      <c r="E41" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>149</v>
+      </c>
+      <c r="D41" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="B42" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="C42" t="s">
-        <v>123</v>
-      </c>
-      <c r="E42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>150</v>
+      </c>
+      <c r="D42" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="B43" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="C43" t="s">
-        <v>124</v>
-      </c>
-      <c r="E43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>151</v>
+      </c>
+      <c r="D43" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="B44" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="C44" t="s">
-        <v>125</v>
-      </c>
-      <c r="E44" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>152</v>
+      </c>
+      <c r="D44" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="B45" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="C45" t="s">
-        <v>126</v>
-      </c>
-      <c r="E45" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>153</v>
+      </c>
+      <c r="D45" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="B46" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="C46" t="s">
-        <v>127</v>
-      </c>
-      <c r="E46" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>154</v>
+      </c>
+      <c r="D46" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="B47" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="C47" t="s">
-        <v>128</v>
-      </c>
-      <c r="E47" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>155</v>
+      </c>
+      <c r="D47" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="B48" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="C48" t="s">
-        <v>129</v>
-      </c>
-      <c r="E48" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>156</v>
+      </c>
+      <c r="D48" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="B49" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="C49" t="s">
-        <v>130</v>
-      </c>
-      <c r="E49" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
-        <v>99</v>
-      </c>
-      <c r="B50" t="s">
-        <v>131</v>
-      </c>
-      <c r="C50" t="s">
-        <v>131</v>
-      </c>
-      <c r="E50" t="s">
-        <v>93</v>
+        <v>157</v>
+      </c>
+      <c r="D49" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B51" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="C51" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="E51" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B52" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="C52" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="E52" t="s">
-        <v>98</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B53" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="C53" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="E53" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B54" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="C54" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="E54" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B55" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="C55" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="E55" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B56" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="C56" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="E56" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B57" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="C57" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="E57" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B58" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="C58" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="E58" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B59" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="C59" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="E59" t="s">
-        <v>93</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B60" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="C60" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="E60" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B61" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="C61" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="E61" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B62" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="C62" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="E62" t="s">
-        <v>97</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B63" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="C63" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="E63" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B64" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="C64" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="E64" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B65" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="C65" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="E65" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B66" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="C66" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="E66" t="s">
-        <v>93</v>
+        <v>151</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B67" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="C67" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="E67" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B68" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="C68" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="E68" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B69" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="C69" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="E69" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B70" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="C70" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="E70" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B71" t="s">
+        <v>179</v>
+      </c>
+      <c r="C71" t="s">
+        <v>179</v>
+      </c>
+      <c r="E71" t="s">
         <v>152</v>
-      </c>
-      <c r="C71" t="s">
-        <v>152</v>
-      </c>
-      <c r="E71" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B72" t="s">
+        <v>180</v>
+      </c>
+      <c r="C72" t="s">
+        <v>180</v>
+      </c>
+      <c r="E72" t="s">
         <v>153</v>
-      </c>
-      <c r="C72" t="s">
-        <v>153</v>
-      </c>
-      <c r="E72" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B73" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="C73" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="E73" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B74" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="C74" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="E74" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B75" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="C75" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="E75" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B76" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="C76" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="E76" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B77" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="C77" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="E77" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B78" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="C78" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="E78" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B79" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="C79" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="E79" t="s">
-        <v>98</v>
+        <v>155</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B80" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="C80" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="E80" t="s">
-        <v>98</v>
+        <v>151</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B81" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="C81" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="E81" t="s">
-        <v>98</v>
+        <v>152</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B82" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="C82" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="E82" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B83" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="C83" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="E83" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B84" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="C84" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="E84" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B85" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="C85" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="E85" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B86" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="C86" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="E86" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B87" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="C87" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="E87" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B88" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="C88" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="E88" t="s">
-        <v>95</v>
+        <v>154</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B89" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="C89" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="E89" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B90" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="C90" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="E90" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B91" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="C91" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="E91" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B92" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="C92" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="E92" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B93" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="C93" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="E93" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B94" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="C94" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="E94" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B95" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="C95" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="E95" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B96" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="C96" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="E96" t="s">
-        <v>97</v>
+        <v>155</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B97" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="C97" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="E97" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B98" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="C98" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="E98" t="s">
-        <v>97</v>
+        <v>152</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B99" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="C99" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="E99" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B100" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="C100" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="E100" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B101" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="C101" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="E101" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B102" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="C102" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="E102" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B103" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="C103" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="E103" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B104" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="C104" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="E104" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B105" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="C105" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="E105" t="s">
-        <v>96</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B106" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="C106" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="E106" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B107" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="C107" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="E107" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B108" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="C108" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="E108" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B109" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="C109" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="E109" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B110" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="C110" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="E110" t="s">
-        <v>95</v>
+        <v>154</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B111" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="C111" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="E111" t="s">
-        <v>95</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B112" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="C112" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="E112" t="s">
-        <v>94</v>
+        <v>157</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B113" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="C113" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="E113" t="s">
-        <v>94</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B114" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="C114" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="E114" t="s">
-        <v>94</v>
+        <v>148</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B115" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="C115" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="E115" t="s">
-        <v>94</v>
+        <v>148</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B116" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="C116" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="E116" t="s">
-        <v>94</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B117" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="C117" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="E117" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B118" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="C118" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="E118" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B119" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="C119" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="E119" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B120" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="C120" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="E120" t="s">
-        <v>95</v>
+        <v>154</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B121" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="C121" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="E121" t="s">
-        <v>95</v>
+        <v>154</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B122" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="C122" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="E122" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B123" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="C123" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="E123" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B124" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="C124" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="E124" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B125" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="C125" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="E125" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B126" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="C126" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="E126" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B127" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="C127" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="E127" t="s">
-        <v>96</v>
+        <v>156</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B128" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="C128" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="E128" t="s">
-        <v>91</v>
+        <v>156</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B129" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="C129" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="E129" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B130" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="C130" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="E130" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B131" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="C131" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="E131" t="s">
-        <v>96</v>
+        <v>154</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B132" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="C132" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="E132" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B133" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="C133" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="E133" t="s">
-        <v>96</v>
+        <v>154</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B134" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="C134" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="E134" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B135" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="C135" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="E135" t="s">
-        <v>92</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B136" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="C136" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="E136" t="s">
-        <v>92</v>
+        <v>152</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B137" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="C137" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="E137" t="s">
-        <v>96</v>
+        <v>155</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B138" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="C138" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="E138" t="s">
-        <v>96</v>
+        <v>155</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B139" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="C139" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="E139" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B140" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="C140" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="E140" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B141" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="C141" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="E141" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B142" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="C142" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="E142" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B143" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="C143" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="E143" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B144" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="C144" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="E144" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B145" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="C145" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="E145" t="s">
-        <v>89</v>
+        <v>153</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B146" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="C146" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="E146" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B147" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="C147" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="E147" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B148" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="C148" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="E148" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B149" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="C149" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="E149" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B150" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="C150" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="E150" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B151" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="C151" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="E151" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B152" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="C152" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="E152" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B153" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="C153" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="E153" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B154" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="C154" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="E154" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="C155" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="E155" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B156" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="C156" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="E156" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B157" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="C157" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="E157" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="C158" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="E158" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="C159" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="E159" t="s">
-        <v>98</v>
+        <v>155</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="C160" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="E160" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B161" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="C161" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="E161" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B162" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="C162" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="E162" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B163" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="C163" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="E163" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B164" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C164" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="E164" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B165" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="C165" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="E165" t="s">
-        <v>96</v>
+        <v>155</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B166" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="C166" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="E166" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B167" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="C167" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="E167" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B168" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="C168" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="E168" t="s">
-        <v>98</v>
+        <v>151</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B169" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="C169" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="E169" t="s">
-        <v>98</v>
+        <v>155</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B170" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="C170" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="E170" t="s">
-        <v>98</v>
+        <v>155</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B171" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="C171" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="E171" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B172" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="C172" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="E172" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B173" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="C173" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="E173" t="s">
-        <v>94</v>
+        <v>157</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B174" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="C174" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="E174" t="s">
-        <v>94</v>
+        <v>148</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B175" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="C175" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="E175" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B176" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="C176" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="E176" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B177" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="C177" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="E177" t="s">
-        <v>95</v>
+        <v>148</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B178" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="C178" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="E178" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B179" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="C179" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="E179" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B180" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="C180" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="E180" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B181" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="C181" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="E181" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B182" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="C182" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="E182" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B183" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="C183" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="E183" t="s">
-        <v>91</v>
+        <v>156</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B184" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="C184" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="E184" t="s">
-        <v>91</v>
+        <v>156</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B185" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="C185" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="E185" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B186" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="C186" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="E186" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B187" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="C187" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="E187" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B188" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="C188" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="E188" t="s">
-        <v>95</v>
+        <v>154</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B189" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="C189" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="E189" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B190" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="C190" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="E190" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B191" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="C191" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="E191" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B192" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="C192" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="E192" t="s">
-        <v>89</v>
+        <v>153</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B193" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="C193" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="E193" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B194" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="C194" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="E194" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B195" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="C195" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="E195" t="s">
-        <v>95</v>
+        <v>148</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B196" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="C196" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="E196" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B197" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="C197" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="E197" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B198" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="C198" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="E198" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B199" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="C199" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="E199" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B200" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="C200" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="E200" t="s">
-        <v>97</v>
+        <v>157</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B201" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="C201" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="E201" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B202" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="C202" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="E202" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B203" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="C203" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="E203" t="s">
-        <v>93</v>
+        <v>150</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B204" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="C204" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="E204" t="s">
-        <v>91</v>
+        <v>150</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B205" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="C205" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="E205" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B206" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="C206" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="E206" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B207" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="C207" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="E207" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B208" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="C208" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="E208" t="s">
-        <v>93</v>
+        <v>150</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B209" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="C209" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="E209" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B210" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="C210" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="E210" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B211" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="C211" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="E211" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B212" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="C212" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="E212" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B213" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="C213" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="E213" t="s">
-        <v>95</v>
+        <v>148</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B214" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="C214" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="E214" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B215" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="C215" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="E215" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B216" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="C216" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="E216" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B217" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="C217" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="E217" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B218" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="C218" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="E218" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B219" t="s">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="C219" t="s">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="E219" t="s">
-        <v>91</v>
+        <v>150</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B220" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="C220" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="E220" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B221" t="s">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="C221" t="s">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="E221" t="s">
-        <v>97</v>
+        <v>152</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B222" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="C222" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E222" t="s">
-        <v>97</v>
+        <v>152</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B223" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="C223" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="E223" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B224" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="C224" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="E224" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B225" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="C225" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="E225" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B226" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
       <c r="C226" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
       <c r="E226" t="s">
-        <v>89</v>
+        <v>151</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B227" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="C227" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="E227" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B228" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="C228" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="E228" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B229" t="s">
-        <v>310</v>
+        <v>337</v>
       </c>
       <c r="C229" t="s">
-        <v>310</v>
+        <v>337</v>
       </c>
       <c r="E229" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B230" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="C230" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="E230" t="s">
-        <v>98</v>
+        <v>156</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B231" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="C231" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="E231" t="s">
-        <v>96</v>
+        <v>156</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B232" t="s">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="C232" t="s">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="E232" t="s">
-        <v>96</v>
+        <v>156</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B233" t="s">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="C233" t="s">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="E233" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B234" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="C234" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="E234" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B235" t="s">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="C235" t="s">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="E235" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B236" t="s">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="C236" t="s">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="E236" t="s">
-        <v>91</v>
+        <v>150</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B237" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="C237" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="E237" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B238" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="C238" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="E238" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B239" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="C239" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="E239" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B240" t="s">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="C240" t="s">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="E240" t="s">
-        <v>92</v>
+        <v>152</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B241" t="s">
-        <v>322</v>
+        <v>349</v>
       </c>
       <c r="C241" t="s">
-        <v>322</v>
+        <v>349</v>
       </c>
       <c r="E241" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B242" t="s">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="C242" t="s">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="E242" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B243" t="s">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="C243" t="s">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="E243" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B244" t="s">
-        <v>325</v>
+        <v>352</v>
       </c>
       <c r="C244" t="s">
-        <v>325</v>
+        <v>352</v>
       </c>
       <c r="E244" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B245" t="s">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="C245" t="s">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="E245" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B246" t="s">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="C246" t="s">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="E246" t="s">
-        <v>97</v>
+        <v>155</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B247" t="s">
-        <v>328</v>
+        <v>355</v>
       </c>
       <c r="C247" t="s">
-        <v>328</v>
+        <v>355</v>
       </c>
       <c r="E247" t="s">
-        <v>97</v>
+        <v>148</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B248" t="s">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="C248" t="s">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="E248" t="s">
-        <v>97</v>
+        <v>157</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B249" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="C249" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="E249" t="s">
-        <v>95</v>
+        <v>157</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B250" t="s">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="C250" t="s">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="E250" t="s">
-        <v>90</v>
+        <v>157</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B251" t="s">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="C251" t="s">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="E251" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B252" t="s">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="C252" t="s">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="E252" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B253" t="s">
-        <v>334</v>
+        <v>361</v>
       </c>
       <c r="C253" t="s">
-        <v>334</v>
+        <v>361</v>
       </c>
       <c r="E253" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B254" t="s">
-        <v>335</v>
+        <v>362</v>
       </c>
       <c r="C254" t="s">
-        <v>335</v>
+        <v>362</v>
       </c>
       <c r="E254" t="s">
-        <v>91</v>
+        <v>156</v>
       </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B255" t="s">
-        <v>336</v>
+        <v>363</v>
       </c>
       <c r="C255" t="s">
-        <v>336</v>
+        <v>363</v>
       </c>
       <c r="E255" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
     </row>
     <row r="256" spans="1:5">
       <c r="A256" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B256" t="s">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="C256" t="s">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="E256" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B257" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="C257" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="E257" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
     </row>
     <row r="258" spans="1:5">
       <c r="A258" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B258" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="C258" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="E258" t="s">
-        <v>97</v>
+        <v>148</v>
       </c>
     </row>
     <row r="259" spans="1:5">
       <c r="A259" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B259" t="s">
-        <v>340</v>
+        <v>367</v>
       </c>
       <c r="C259" t="s">
-        <v>340</v>
+        <v>367</v>
       </c>
       <c r="E259" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B260" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="C260" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="E260" t="s">
-        <v>98</v>
+        <v>157</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B261" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="C261" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="E261" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B262" t="s">
-        <v>343</v>
+        <v>370</v>
       </c>
       <c r="C262" t="s">
-        <v>343</v>
+        <v>370</v>
       </c>
       <c r="E262" t="s">
-        <v>90</v>
+        <v>157</v>
       </c>
     </row>
     <row r="263" spans="1:5">
       <c r="A263" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B263" t="s">
-        <v>344</v>
+        <v>371</v>
       </c>
       <c r="C263" t="s">
-        <v>344</v>
+        <v>371</v>
       </c>
       <c r="E263" t="s">
-        <v>96</v>
+        <v>155</v>
       </c>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B264" t="s">
-        <v>345</v>
+        <v>372</v>
       </c>
       <c r="C264" t="s">
-        <v>345</v>
+        <v>372</v>
       </c>
       <c r="E264" t="s">
-        <v>96</v>
+        <v>155</v>
       </c>
     </row>
     <row r="265" spans="1:5">
       <c r="A265" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B265" t="s">
-        <v>346</v>
+        <v>373</v>
       </c>
       <c r="C265" t="s">
-        <v>346</v>
+        <v>373</v>
       </c>
       <c r="E265" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
     </row>
     <row r="266" spans="1:5">
       <c r="A266" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B266" t="s">
-        <v>347</v>
+        <v>374</v>
       </c>
       <c r="C266" t="s">
-        <v>347</v>
+        <v>374</v>
       </c>
       <c r="E266" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B267" t="s">
-        <v>348</v>
+        <v>375</v>
       </c>
       <c r="C267" t="s">
-        <v>348</v>
+        <v>375</v>
       </c>
       <c r="E267" t="s">
-        <v>98</v>
+        <v>155</v>
       </c>
     </row>
     <row r="268" spans="1:5">
       <c r="A268" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B268" t="s">
-        <v>349</v>
+        <v>376</v>
       </c>
       <c r="C268" t="s">
-        <v>349</v>
+        <v>376</v>
       </c>
       <c r="E268" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
     </row>
     <row r="269" spans="1:5">
       <c r="A269" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B269" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="C269" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="E269" t="s">
-        <v>96</v>
+        <v>151</v>
       </c>
     </row>
     <row r="270" spans="1:5">
       <c r="A270" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B270" t="s">
-        <v>351</v>
+        <v>378</v>
       </c>
       <c r="C270" t="s">
-        <v>351</v>
+        <v>378</v>
       </c>
       <c r="E270" t="s">
-        <v>90</v>
+        <v>151</v>
       </c>
     </row>
     <row r="271" spans="1:5">
       <c r="A271" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B271" t="s">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c r="C271" t="s">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c r="E271" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
     </row>
     <row r="272" spans="1:5">
       <c r="A272" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B272" t="s">
-        <v>353</v>
+        <v>380</v>
       </c>
       <c r="C272" t="s">
-        <v>353</v>
+        <v>380</v>
       </c>
       <c r="E272" t="s">
-        <v>98</v>
+        <v>151</v>
       </c>
     </row>
     <row r="273" spans="1:5">
       <c r="A273" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B273" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c r="C273" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c r="E273" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
     </row>
     <row r="274" spans="1:5">
       <c r="A274" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B274" t="s">
-        <v>355</v>
+        <v>382</v>
       </c>
       <c r="C274" t="s">
-        <v>355</v>
+        <v>382</v>
       </c>
       <c r="E274" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
     </row>
     <row r="275" spans="1:5">
       <c r="A275" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B275" t="s">
-        <v>356</v>
+        <v>383</v>
       </c>
       <c r="C275" t="s">
-        <v>356</v>
+        <v>383</v>
       </c>
       <c r="E275" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
     </row>
     <row r="276" spans="1:5">
       <c r="A276" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B276" t="s">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="C276" t="s">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="E276" t="s">
-        <v>91</v>
+        <v>156</v>
       </c>
     </row>
     <row r="277" spans="1:5">
       <c r="A277" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B277" t="s">
-        <v>358</v>
+        <v>385</v>
       </c>
       <c r="C277" t="s">
-        <v>358</v>
+        <v>385</v>
       </c>
       <c r="E277" t="s">
-        <v>91</v>
+        <v>156</v>
       </c>
     </row>
     <row r="278" spans="1:5">
       <c r="A278" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B278" t="s">
-        <v>359</v>
+        <v>386</v>
       </c>
       <c r="C278" t="s">
-        <v>359</v>
+        <v>386</v>
       </c>
       <c r="E278" t="s">
-        <v>91</v>
+        <v>156</v>
       </c>
     </row>
     <row r="279" spans="1:5">
       <c r="A279" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B279" t="s">
-        <v>360</v>
+        <v>387</v>
       </c>
       <c r="C279" t="s">
-        <v>360</v>
+        <v>387</v>
       </c>
       <c r="E279" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
     </row>
     <row r="280" spans="1:5">
       <c r="A280" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B280" t="s">
-        <v>361</v>
+        <v>388</v>
       </c>
       <c r="C280" t="s">
-        <v>361</v>
+        <v>388</v>
       </c>
       <c r="E280" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
     </row>
     <row r="281" spans="1:5">
       <c r="A281" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B281" t="s">
-        <v>362</v>
+        <v>389</v>
       </c>
       <c r="C281" t="s">
-        <v>362</v>
+        <v>389</v>
       </c>
       <c r="E281" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
     </row>
     <row r="282" spans="1:5">
       <c r="A282" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B282" t="s">
-        <v>363</v>
+        <v>390</v>
       </c>
       <c r="C282" t="s">
-        <v>363</v>
+        <v>390</v>
       </c>
       <c r="E282" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
     </row>
     <row r="283" spans="1:5">
       <c r="A283" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B283" t="s">
-        <v>364</v>
+        <v>391</v>
       </c>
       <c r="C283" t="s">
-        <v>364</v>
+        <v>391</v>
       </c>
       <c r="E283" t="s">
-        <v>94</v>
+        <v>151</v>
       </c>
     </row>
     <row r="284" spans="1:5">
       <c r="A284" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B284" t="s">
-        <v>365</v>
+        <v>392</v>
       </c>
       <c r="C284" t="s">
-        <v>365</v>
+        <v>392</v>
       </c>
       <c r="E284" t="s">
-        <v>90</v>
+        <v>151</v>
       </c>
     </row>
     <row r="285" spans="1:5">
       <c r="A285" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B285" t="s">
-        <v>366</v>
+        <v>393</v>
       </c>
       <c r="C285" t="s">
-        <v>366</v>
+        <v>393</v>
       </c>
       <c r="E285" t="s">
-        <v>90</v>
+        <v>154</v>
       </c>
     </row>
     <row r="286" spans="1:5">
       <c r="A286" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B286" t="s">
-        <v>367</v>
+        <v>394</v>
       </c>
       <c r="C286" t="s">
-        <v>367</v>
+        <v>394</v>
       </c>
       <c r="E286" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
     </row>
     <row r="287" spans="1:5">
       <c r="A287" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B287" t="s">
-        <v>368</v>
+        <v>395</v>
       </c>
       <c r="C287" t="s">
-        <v>368</v>
+        <v>395</v>
       </c>
       <c r="E287" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
     </row>
     <row r="288" spans="1:5">
       <c r="A288" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B288" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="C288" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="E288" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
     </row>
     <row r="289" spans="1:5">
       <c r="A289" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B289" t="s">
-        <v>370</v>
+        <v>397</v>
       </c>
       <c r="C289" t="s">
-        <v>370</v>
+        <v>397</v>
       </c>
       <c r="E289" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
     </row>
     <row r="290" spans="1:5">
       <c r="A290" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B290" t="s">
-        <v>371</v>
+        <v>398</v>
       </c>
       <c r="C290" t="s">
-        <v>371</v>
+        <v>398</v>
       </c>
       <c r="E290" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
     </row>
     <row r="291" spans="1:5">
       <c r="A291" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B291" t="s">
-        <v>372</v>
+        <v>399</v>
       </c>
       <c r="C291" t="s">
-        <v>372</v>
+        <v>399</v>
       </c>
       <c r="E291" t="s">
-        <v>90</v>
+        <v>152</v>
       </c>
     </row>
     <row r="292" spans="1:5">
       <c r="A292" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B292" t="s">
-        <v>373</v>
+        <v>400</v>
       </c>
       <c r="C292" t="s">
-        <v>373</v>
+        <v>400</v>
       </c>
       <c r="E292" t="s">
-        <v>90</v>
+        <v>157</v>
       </c>
     </row>
     <row r="293" spans="1:5">
       <c r="A293" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B293" t="s">
-        <v>374</v>
+        <v>401</v>
       </c>
       <c r="C293" t="s">
-        <v>374</v>
+        <v>401</v>
       </c>
       <c r="E293" t="s">
-        <v>90</v>
+        <v>151</v>
       </c>
     </row>
     <row r="294" spans="1:5">
       <c r="A294" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B294" t="s">
-        <v>375</v>
+        <v>402</v>
       </c>
       <c r="C294" t="s">
-        <v>375</v>
+        <v>402</v>
       </c>
       <c r="E294" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
     </row>
     <row r="295" spans="1:5">
       <c r="A295" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B295" t="s">
-        <v>376</v>
+        <v>403</v>
       </c>
       <c r="C295" t="s">
-        <v>376</v>
+        <v>403</v>
       </c>
       <c r="E295" t="s">
-        <v>90</v>
+        <v>155</v>
       </c>
     </row>
     <row r="296" spans="1:5">
       <c r="A296" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B296" t="s">
-        <v>377</v>
+        <v>404</v>
       </c>
       <c r="C296" t="s">
-        <v>377</v>
+        <v>404</v>
       </c>
       <c r="E296" t="s">
-        <v>90</v>
+        <v>155</v>
       </c>
     </row>
     <row r="297" spans="1:5">
       <c r="A297" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B297" t="s">
-        <v>378</v>
+        <v>405</v>
       </c>
       <c r="C297" t="s">
-        <v>378</v>
+        <v>405</v>
       </c>
       <c r="E297" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
     </row>
     <row r="298" spans="1:5">
       <c r="A298" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B298" t="s">
-        <v>379</v>
+        <v>406</v>
       </c>
       <c r="C298" t="s">
-        <v>379</v>
+        <v>406</v>
       </c>
       <c r="E298" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
     </row>
     <row r="299" spans="1:5">
       <c r="A299" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B299" t="s">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="C299" t="s">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="E299" t="s">
-        <v>90</v>
+        <v>157</v>
       </c>
     </row>
     <row r="300" spans="1:5">
       <c r="A300" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B300" t="s">
-        <v>381</v>
+        <v>408</v>
       </c>
       <c r="C300" t="s">
-        <v>381</v>
+        <v>408</v>
       </c>
       <c r="E300" t="s">
-        <v>90</v>
+        <v>157</v>
       </c>
     </row>
     <row r="301" spans="1:5">
       <c r="A301" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B301" t="s">
-        <v>382</v>
+        <v>409</v>
       </c>
       <c r="C301" t="s">
-        <v>382</v>
+        <v>409</v>
       </c>
       <c r="E301" t="s">
-        <v>90</v>
+        <v>155</v>
       </c>
     </row>
     <row r="302" spans="1:5">
       <c r="A302" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B302" t="s">
-        <v>383</v>
+        <v>410</v>
       </c>
       <c r="C302" t="s">
-        <v>383</v>
+        <v>410</v>
       </c>
       <c r="E302" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
     </row>
     <row r="303" spans="1:5">
       <c r="A303" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B303" t="s">
-        <v>384</v>
+        <v>411</v>
       </c>
       <c r="C303" t="s">
-        <v>384</v>
+        <v>411</v>
       </c>
       <c r="E303" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
     </row>
     <row r="304" spans="1:5">
       <c r="A304" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B304" t="s">
-        <v>385</v>
+        <v>412</v>
       </c>
       <c r="C304" t="s">
-        <v>385</v>
+        <v>412</v>
       </c>
       <c r="E304" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
     </row>
     <row r="305" spans="1:5">
       <c r="A305" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B305" t="s">
-        <v>386</v>
+        <v>413</v>
       </c>
       <c r="C305" t="s">
-        <v>386</v>
+        <v>413</v>
       </c>
       <c r="E305" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
     </row>
     <row r="306" spans="1:5">
       <c r="A306" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B306" t="s">
-        <v>387</v>
+        <v>414</v>
       </c>
       <c r="C306" t="s">
-        <v>387</v>
+        <v>414</v>
       </c>
       <c r="E306" t="s">
-        <v>97</v>
+        <v>157</v>
       </c>
     </row>
     <row r="307" spans="1:5">
       <c r="A307" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B307" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C307" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="E307" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
     </row>
     <row r="308" spans="1:5">
       <c r="A308" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B308" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C308" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="E308" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
     </row>
     <row r="309" spans="1:5">
       <c r="A309" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B309" t="s">
-        <v>390</v>
+        <v>417</v>
       </c>
       <c r="C309" t="s">
-        <v>390</v>
+        <v>417</v>
       </c>
       <c r="E309" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
     </row>
     <row r="310" spans="1:5">
       <c r="A310" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B310" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="C310" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="E310" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
     </row>
     <row r="311" spans="1:5">
       <c r="A311" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B311" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
       <c r="C311" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
       <c r="E311" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
     </row>
     <row r="312" spans="1:5">
       <c r="A312" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B312" t="s">
-        <v>393</v>
+        <v>420</v>
       </c>
       <c r="C312" t="s">
-        <v>393</v>
+        <v>420</v>
       </c>
       <c r="E312" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
     </row>
     <row r="313" spans="1:5">
       <c r="A313" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B313" t="s">
-        <v>394</v>
+        <v>421</v>
       </c>
       <c r="C313" t="s">
-        <v>394</v>
+        <v>421</v>
       </c>
       <c r="E313" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
     </row>
     <row r="314" spans="1:5">
       <c r="A314" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B314" t="s">
-        <v>395</v>
+        <v>422</v>
       </c>
       <c r="C314" t="s">
-        <v>395</v>
+        <v>422</v>
       </c>
       <c r="E314" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
     </row>
     <row r="315" spans="1:5">
       <c r="A315" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B315" t="s">
-        <v>396</v>
+        <v>423</v>
       </c>
       <c r="C315" t="s">
-        <v>396</v>
+        <v>423</v>
       </c>
       <c r="E315" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
     </row>
     <row r="316" spans="1:5">
       <c r="A316" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B316" t="s">
-        <v>397</v>
+        <v>424</v>
       </c>
       <c r="C316" t="s">
-        <v>397</v>
+        <v>424</v>
       </c>
       <c r="E316" t="s">
-        <v>96</v>
+        <v>149</v>
       </c>
     </row>
     <row r="317" spans="1:5">
       <c r="A317" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B317" t="s">
-        <v>398</v>
+        <v>425</v>
       </c>
       <c r="C317" t="s">
-        <v>398</v>
+        <v>425</v>
       </c>
       <c r="E317" t="s">
-        <v>98</v>
+        <v>149</v>
       </c>
     </row>
     <row r="318" spans="1:5">
       <c r="A318" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B318" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="C318" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="E318" t="s">
-        <v>98</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" t="s">
+        <v>158</v>
+      </c>
+      <c r="B319" t="s">
+        <v>427</v>
+      </c>
+      <c r="C319" t="s">
+        <v>427</v>
+      </c>
+      <c r="E319" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="320" spans="1:5">
-      <c r="A320" s="6" t="s">
-        <v>400</v>
+      <c r="A320" t="s">
+        <v>158</v>
       </c>
       <c r="B320" t="s">
-        <v>401</v>
+        <v>428</v>
       </c>
       <c r="C320" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3">
-      <c r="A321" s="6" t="s">
-        <v>400</v>
+        <v>428</v>
+      </c>
+      <c r="E320" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" t="s">
+        <v>158</v>
       </c>
       <c r="B321" t="s">
-        <v>402</v>
+        <v>429</v>
       </c>
       <c r="C321" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3">
-      <c r="A322" s="6" t="s">
-        <v>400</v>
+        <v>429</v>
+      </c>
+      <c r="E321" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" t="s">
+        <v>158</v>
       </c>
       <c r="B322" t="s">
-        <v>403</v>
+        <v>430</v>
       </c>
       <c r="C322" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3">
+        <v>430</v>
+      </c>
+      <c r="E322" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" t="s">
+        <v>158</v>
+      </c>
+      <c r="B323" t="s">
+        <v>431</v>
+      </c>
+      <c r="C323" t="s">
+        <v>431</v>
+      </c>
+      <c r="E323" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
       <c r="A324" t="s">
-        <v>404</v>
+        <v>158</v>
       </c>
       <c r="B324" t="s">
-        <v>405</v>
+        <v>432</v>
       </c>
       <c r="C324" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3">
+        <v>432</v>
+      </c>
+      <c r="E324" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
       <c r="A325" t="s">
-        <v>404</v>
+        <v>158</v>
       </c>
       <c r="B325" t="s">
-        <v>406</v>
+        <v>433</v>
       </c>
       <c r="C325" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3">
+        <v>433</v>
+      </c>
+      <c r="E325" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
       <c r="A326" t="s">
-        <v>404</v>
+        <v>158</v>
       </c>
       <c r="B326" t="s">
-        <v>407</v>
+        <v>434</v>
       </c>
       <c r="C326" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3">
+        <v>434</v>
+      </c>
+      <c r="E326" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
       <c r="A327" t="s">
-        <v>404</v>
+        <v>158</v>
       </c>
       <c r="B327" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="C327" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3">
+        <v>435</v>
+      </c>
+      <c r="E327" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" t="s">
+        <v>158</v>
+      </c>
+      <c r="B328" t="s">
+        <v>436</v>
+      </c>
+      <c r="C328" t="s">
+        <v>436</v>
+      </c>
+      <c r="E328" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
       <c r="A329" t="s">
-        <v>410</v>
+        <v>158</v>
       </c>
       <c r="B329" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="C329" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3">
+        <v>437</v>
+      </c>
+      <c r="E329" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
       <c r="A330" t="s">
-        <v>410</v>
+        <v>158</v>
       </c>
       <c r="B330" t="s">
-        <v>401</v>
+        <v>438</v>
       </c>
       <c r="C330" t="s">
-        <v>401</v>
+        <v>438</v>
+      </c>
+      <c r="E330" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" t="s">
+        <v>158</v>
+      </c>
+      <c r="B331" t="s">
+        <v>439</v>
+      </c>
+      <c r="C331" t="s">
+        <v>439</v>
+      </c>
+      <c r="E331" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" t="s">
+        <v>158</v>
+      </c>
+      <c r="B332" t="s">
+        <v>440</v>
+      </c>
+      <c r="C332" t="s">
+        <v>440</v>
+      </c>
+      <c r="E332" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" t="s">
+        <v>158</v>
+      </c>
+      <c r="B333" t="s">
+        <v>441</v>
+      </c>
+      <c r="C333" t="s">
+        <v>441</v>
+      </c>
+      <c r="E333" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" t="s">
+        <v>158</v>
+      </c>
+      <c r="B334" t="s">
+        <v>442</v>
+      </c>
+      <c r="C334" t="s">
+        <v>442</v>
+      </c>
+      <c r="E334" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" t="s">
+        <v>158</v>
+      </c>
+      <c r="B335" t="s">
+        <v>443</v>
+      </c>
+      <c r="C335" t="s">
+        <v>443</v>
+      </c>
+      <c r="E335" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" t="s">
+        <v>158</v>
+      </c>
+      <c r="B336" t="s">
+        <v>444</v>
+      </c>
+      <c r="C336" t="s">
+        <v>444</v>
+      </c>
+      <c r="E336" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" t="s">
+        <v>158</v>
+      </c>
+      <c r="B337" t="s">
+        <v>445</v>
+      </c>
+      <c r="C337" t="s">
+        <v>445</v>
+      </c>
+      <c r="E337" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" t="s">
+        <v>158</v>
+      </c>
+      <c r="B338" t="s">
+        <v>446</v>
+      </c>
+      <c r="C338" t="s">
+        <v>446</v>
+      </c>
+      <c r="E338" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" t="s">
+        <v>158</v>
+      </c>
+      <c r="B339" t="s">
+        <v>447</v>
+      </c>
+      <c r="C339" t="s">
+        <v>447</v>
+      </c>
+      <c r="E339" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" t="s">
+        <v>158</v>
+      </c>
+      <c r="B340" t="s">
+        <v>448</v>
+      </c>
+      <c r="C340" t="s">
+        <v>448</v>
+      </c>
+      <c r="E340" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" t="s">
+        <v>158</v>
+      </c>
+      <c r="B341" t="s">
+        <v>449</v>
+      </c>
+      <c r="C341" t="s">
+        <v>449</v>
+      </c>
+      <c r="E341" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" t="s">
+        <v>158</v>
+      </c>
+      <c r="B342" t="s">
+        <v>450</v>
+      </c>
+      <c r="C342" t="s">
+        <v>450</v>
+      </c>
+      <c r="E342" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" t="s">
+        <v>158</v>
+      </c>
+      <c r="B343" t="s">
+        <v>451</v>
+      </c>
+      <c r="C343" t="s">
+        <v>451</v>
+      </c>
+      <c r="E343" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" t="s">
+        <v>158</v>
+      </c>
+      <c r="B344" t="s">
+        <v>452</v>
+      </c>
+      <c r="C344" t="s">
+        <v>452</v>
+      </c>
+      <c r="E344" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" t="s">
+        <v>158</v>
+      </c>
+      <c r="B345" t="s">
+        <v>453</v>
+      </c>
+      <c r="C345" t="s">
+        <v>453</v>
+      </c>
+      <c r="E345" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" t="s">
+        <v>158</v>
+      </c>
+      <c r="B346" t="s">
+        <v>454</v>
+      </c>
+      <c r="C346" t="s">
+        <v>454</v>
+      </c>
+      <c r="E346" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" t="s">
+        <v>158</v>
+      </c>
+      <c r="B347" t="s">
+        <v>455</v>
+      </c>
+      <c r="C347" t="s">
+        <v>455</v>
+      </c>
+      <c r="E347" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" t="s">
+        <v>158</v>
+      </c>
+      <c r="B348" t="s">
+        <v>456</v>
+      </c>
+      <c r="C348" t="s">
+        <v>456</v>
+      </c>
+      <c r="E348" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" t="s">
+        <v>158</v>
+      </c>
+      <c r="B349" t="s">
+        <v>457</v>
+      </c>
+      <c r="C349" t="s">
+        <v>457</v>
+      </c>
+      <c r="E349" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" t="s">
+        <v>158</v>
+      </c>
+      <c r="B350" t="s">
+        <v>458</v>
+      </c>
+      <c r="C350" t="s">
+        <v>458</v>
+      </c>
+      <c r="E350" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -6693,7 +7923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -6703,32 +7933,32 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.41015625" defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="11.4083333333333" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="55" customWidth="1"/>
-    <col min="2" max="2" width="45.41015625" customWidth="1"/>
+    <col min="2" max="2" width="45.4083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>412</v>
+        <v>459</v>
       </c>
       <c r="B1" t="s">
-        <v>413</v>
+        <v>460</v>
       </c>
       <c r="C1" t="s">
-        <v>414</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>415</v>
+        <v>462</v>
       </c>
       <c r="B2" t="s">
-        <v>416</v>
+        <v>463</v>
       </c>
       <c r="C2" t="s">
-        <v>417</v>
+        <v>464</v>
       </c>
       <c r="D2" s="2"/>
     </row>
